--- a/R/LE1 2017_08_15 (House 14) (LN)_newcleaned.xlsx
+++ b/R/LE1 2017_08_15 (House 14) (LN)_newcleaned.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr hidePivotFieldList="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeozy\Documents\Yale-NUS\Y3S1\UROPS\Data\R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TMSI-REL\Desktop\Zhi Yi's Working Folder\UROPS\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D8A4CE89-6E0A-4314-807A-99B42E47BD36}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE5D360-56B6-477C-9574-652A051FDAFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="565" yWindow="565" windowWidth="25045" windowHeight="15441" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="570" yWindow="570" windowWidth="25050" windowHeight="15435" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Site" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,18 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'LE1'!$A$1:$T$305</definedName>
   </definedNames>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -10774,30 +10779,30 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="32.453125" customWidth="1"/>
+    <col min="1" max="2" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>873</v>
       </c>
       <c r="B1" s="15"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>874</v>
       </c>
       <c r="B2" s="16"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>875</v>
       </c>
       <c r="B3" s="16"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>876</v>
       </c>
@@ -10805,7 +10810,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>878</v>
       </c>
@@ -10813,13 +10818,13 @@
         <v>879</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>880</v>
       </c>
       <c r="B6" s="16"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>881</v>
       </c>
@@ -10827,13 +10832,13 @@
         <v>965</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>882</v>
       </c>
       <c r="B8" s="16"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>883</v>
       </c>
@@ -10841,13 +10846,13 @@
         <v>966</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>884</v>
       </c>
       <c r="B10" s="16"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>885</v>
       </c>
@@ -10855,13 +10860,13 @@
         <v>967</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>886</v>
       </c>
       <c r="B12" s="16"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>887</v>
       </c>
@@ -10869,7 +10874,7 @@
         <v>42962</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>888</v>
       </c>
@@ -10877,7 +10882,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>889</v>
       </c>
@@ -10885,7 +10890,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>890</v>
       </c>
@@ -10893,13 +10898,13 @@
         <v>969</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>891</v>
       </c>
       <c r="B17" s="17"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>892</v>
       </c>
@@ -10907,7 +10912,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>893</v>
       </c>
@@ -10915,13 +10920,13 @@
         <v>972</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>894</v>
       </c>
       <c r="B20" s="16"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>895</v>
       </c>
@@ -10929,13 +10934,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>896</v>
       </c>
       <c r="B22" s="16"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>897</v>
       </c>
@@ -10943,43 +10948,43 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>898</v>
       </c>
       <c r="B24" s="16"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>899</v>
       </c>
       <c r="B25" s="16"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>900</v>
       </c>
       <c r="B26" s="16"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>901</v>
       </c>
       <c r="B27" s="16"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>902</v>
       </c>
       <c r="B28" s="16"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>903</v>
       </c>
       <c r="B29" s="16"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>904</v>
       </c>
@@ -10987,7 +10992,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>905</v>
       </c>
@@ -11011,12 +11016,12 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.1796875" customWidth="1"/>
+    <col min="2" max="2" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>19</v>
       </c>
@@ -11024,7 +11029,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>21</v>
       </c>
@@ -11032,7 +11037,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>23</v>
       </c>
@@ -11040,7 +11045,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>25</v>
       </c>
@@ -11048,7 +11053,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>27</v>
       </c>
@@ -11056,7 +11061,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
@@ -11064,7 +11069,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>31</v>
       </c>
@@ -11072,7 +11077,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>33</v>
       </c>
@@ -11080,7 +11085,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>35</v>
       </c>
@@ -11088,7 +11093,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>37</v>
       </c>
@@ -11096,7 +11101,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>39</v>
       </c>
@@ -11104,7 +11109,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>41</v>
       </c>
@@ -11112,7 +11117,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>43</v>
       </c>
@@ -11120,7 +11125,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>45</v>
       </c>
@@ -11128,7 +11133,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>47</v>
       </c>
@@ -11136,7 +11141,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>49</v>
       </c>
@@ -11144,7 +11149,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>51</v>
       </c>
@@ -11152,7 +11157,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>53</v>
       </c>
@@ -11160,7 +11165,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>55</v>
       </c>
@@ -11168,7 +11173,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>57</v>
       </c>
@@ -11176,7 +11181,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>59</v>
       </c>
@@ -11184,7 +11189,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>61</v>
       </c>
@@ -11192,7 +11197,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>63</v>
       </c>
@@ -11200,7 +11205,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>65</v>
       </c>
@@ -11208,7 +11213,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>67</v>
       </c>
@@ -11216,7 +11221,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>69</v>
       </c>
@@ -11224,7 +11229,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>71</v>
       </c>
@@ -11232,7 +11237,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>73</v>
       </c>
@@ -11240,7 +11245,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>75</v>
       </c>
@@ -11248,7 +11253,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>77</v>
       </c>
@@ -11256,7 +11261,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>79</v>
       </c>
@@ -11264,7 +11269,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>81</v>
       </c>
@@ -11272,7 +11277,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>83</v>
       </c>
@@ -11280,4729 +11285,4729 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="12" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="12" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="12" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="B45" s="12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="B46" s="12" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="B49" s="12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="B50" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="12"/>
       <c r="B52" s="12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
       <c r="B53" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
       <c r="B54" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
       <c r="B55" s="12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
       <c r="B56" s="12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
       <c r="B57" s="12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
       <c r="B58" s="12" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
       <c r="B59" s="12" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
       <c r="B60" s="12" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
       <c r="B61" s="12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
       <c r="B62" s="12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="12"/>
       <c r="B63" s="12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="12"/>
       <c r="B64" s="12" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="12"/>
       <c r="B65" s="12" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="12"/>
       <c r="B66" s="12" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="12"/>
       <c r="B67" s="12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="12"/>
       <c r="B68" s="12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="12"/>
       <c r="B69" s="12" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="12"/>
       <c r="B70" s="12" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="12"/>
       <c r="B71" s="12" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="12"/>
       <c r="B72" s="12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="12"/>
       <c r="B73" s="12" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="12"/>
       <c r="B74" s="12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="12"/>
       <c r="B75" s="12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="12"/>
       <c r="B76" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="12"/>
       <c r="B77" s="12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="12"/>
       <c r="B78" s="12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="12"/>
       <c r="B79" s="12" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="12"/>
       <c r="B80" s="12" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="12"/>
       <c r="B81" s="12" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="12"/>
       <c r="B82" s="12" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="12"/>
       <c r="B83" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="12"/>
       <c r="B84" s="12" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="12"/>
       <c r="B85" s="12" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="12"/>
       <c r="B86" s="12" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="12"/>
       <c r="B87" s="12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="12"/>
       <c r="B88" s="12" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="12"/>
       <c r="B89" s="12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="12"/>
       <c r="B90" s="12" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="12"/>
       <c r="B91" s="12" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="12"/>
       <c r="B92" s="12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="12"/>
       <c r="B93" s="12" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="12"/>
       <c r="B94" s="12" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="12"/>
       <c r="B95" s="12" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="12"/>
       <c r="B96" s="12" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="12"/>
       <c r="B97" s="12" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="12"/>
       <c r="B98" s="12" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="12"/>
       <c r="B99" s="12" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="12"/>
       <c r="B100" s="12" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="12"/>
       <c r="B101" s="12" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="12"/>
       <c r="B102" s="12" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="12"/>
       <c r="B103" s="12" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="12"/>
       <c r="B104" s="12" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="12"/>
       <c r="B105" s="12" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="12"/>
       <c r="B106" s="12" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="12"/>
       <c r="B107" s="12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="12"/>
       <c r="B108" s="12" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="12"/>
       <c r="B109" s="12" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="12"/>
       <c r="B110" s="12" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="12"/>
       <c r="B111" s="12" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="12"/>
       <c r="B112" s="12" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="12"/>
       <c r="B113" s="12" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
       <c r="B114" s="12" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
       <c r="B115" s="12" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
       <c r="B116" s="12" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="12"/>
       <c r="B117" s="12" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="12"/>
       <c r="B118" s="12" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="12"/>
       <c r="B119" s="12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="12"/>
       <c r="B120" s="12" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="12"/>
       <c r="B121" s="12" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="12"/>
       <c r="B122" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="12"/>
       <c r="B123" s="12" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="12"/>
       <c r="B124" s="12" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="12"/>
       <c r="B125" s="12" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="12"/>
       <c r="B126" s="12" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="12"/>
       <c r="B127" s="12" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="12"/>
       <c r="B128" s="12" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="12"/>
       <c r="B129" s="12" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="12"/>
       <c r="B130" s="12" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="12"/>
       <c r="B131" s="12" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="12"/>
       <c r="B132" s="12" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="12"/>
       <c r="B133" s="12" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="12"/>
       <c r="B134" s="12" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="12"/>
       <c r="B135" s="12" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="12"/>
       <c r="B136" s="12" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="12"/>
       <c r="B137" s="12" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="12"/>
       <c r="B138" s="12" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="12"/>
       <c r="B139" s="12" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="12"/>
       <c r="B140" s="12" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="12"/>
       <c r="B141" s="12" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="12"/>
       <c r="B142" s="12" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="12"/>
       <c r="B143" s="12" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="12"/>
       <c r="B144" s="12" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="12"/>
       <c r="B145" s="12" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="12"/>
       <c r="B146" s="12" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="12"/>
       <c r="B147" s="12" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="12"/>
       <c r="B148" s="12" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="12"/>
       <c r="B149" s="12" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="12"/>
       <c r="B150" s="12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="12"/>
       <c r="B151" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="12"/>
       <c r="B152" s="12" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="12"/>
       <c r="B153" s="12" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="12"/>
       <c r="B154" s="12" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="12"/>
       <c r="B155" s="12" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="12"/>
       <c r="B156" s="12" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="12"/>
       <c r="B157" s="12" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="12"/>
       <c r="B158" s="12" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="12"/>
       <c r="B159" s="12" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="12"/>
       <c r="B160" s="12" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="12"/>
       <c r="B161" s="12" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="12"/>
       <c r="B162" s="12" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="12"/>
       <c r="B163" s="12" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="12"/>
       <c r="B164" s="12" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="12"/>
       <c r="B165" s="12" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="12"/>
       <c r="B166" s="12" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="12"/>
       <c r="B167" s="12" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="12"/>
       <c r="B168" s="12" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="12"/>
       <c r="B169" s="12" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="12"/>
       <c r="B170" s="12" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="12"/>
       <c r="B171" s="12" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="12"/>
       <c r="B172" s="12" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="12"/>
       <c r="B173" s="12" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="13"/>
       <c r="B174" s="13" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="13"/>
       <c r="B175" s="13" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="13"/>
       <c r="B176" s="13" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="13"/>
       <c r="B177" s="13" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="13"/>
       <c r="B178" s="13" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="13"/>
       <c r="B179" s="13" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="13"/>
       <c r="B180" s="13" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="13"/>
       <c r="B181" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="13"/>
       <c r="B182" s="13" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="13"/>
       <c r="B183" s="13" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="13"/>
       <c r="B184" s="13" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="13"/>
       <c r="B185" s="13" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="13"/>
       <c r="B186" s="13" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="13"/>
       <c r="B187" s="13" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="13"/>
       <c r="B188" s="13" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="13"/>
       <c r="B189" s="13" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="13"/>
       <c r="B190" s="13" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="13"/>
       <c r="B191" s="13" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="13"/>
       <c r="B192" s="13" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="13"/>
       <c r="B193" s="13" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="13"/>
       <c r="B194" s="13" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="13"/>
       <c r="B195" s="13" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="13"/>
       <c r="B196" s="13" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="13"/>
       <c r="B197" s="13" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="13"/>
       <c r="B198" s="13" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="13"/>
       <c r="B199" s="13" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="13"/>
       <c r="B200" s="13" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="13"/>
       <c r="B201" s="13" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="13"/>
       <c r="B202" s="13" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="13"/>
       <c r="B203" s="13" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="13"/>
       <c r="B204" s="13" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="13"/>
       <c r="B205" s="13" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="13"/>
       <c r="B206" s="13" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="13"/>
       <c r="B207" s="13" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="13"/>
       <c r="B208" s="13" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="13"/>
       <c r="B209" s="13" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="13"/>
       <c r="B210" s="13" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="13"/>
       <c r="B211" s="13" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="13"/>
       <c r="B212" s="13" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="13"/>
       <c r="B213" s="13" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="13"/>
       <c r="B214" s="13" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="13"/>
       <c r="B215" s="13" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="13"/>
       <c r="B216" s="13" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="13"/>
       <c r="B217" s="13" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="13"/>
       <c r="B218" s="13" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="13"/>
       <c r="B219" s="13" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="13"/>
       <c r="B220" s="13" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="13"/>
       <c r="B221" s="13" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="13"/>
       <c r="B222" s="13" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="13"/>
       <c r="B223" s="13" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="13"/>
       <c r="B224" s="13" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="13"/>
       <c r="B225" s="13" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="13"/>
       <c r="B226" s="13" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="13"/>
       <c r="B227" s="13" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="13"/>
       <c r="B228" s="13" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="13"/>
       <c r="B229" s="13" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="13"/>
       <c r="B230" s="13" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="13"/>
       <c r="B231" s="13" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="13"/>
       <c r="B232" s="13" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="13"/>
       <c r="B233" s="13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="13"/>
       <c r="B234" s="13" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="13"/>
       <c r="B235" s="13" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="13"/>
       <c r="B236" s="13" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="13"/>
       <c r="B237" s="13" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="13"/>
       <c r="B238" s="13" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="13"/>
       <c r="B239" s="13" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="13"/>
       <c r="B240" s="13" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="13"/>
       <c r="B241" s="13" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="13"/>
       <c r="B242" s="13" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="13"/>
       <c r="B243" s="13" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="13"/>
       <c r="B244" s="13" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="13"/>
       <c r="B245" s="13" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="13"/>
       <c r="B246" s="13" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="13"/>
       <c r="B247" s="13" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="13"/>
       <c r="B248" s="13" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="13"/>
       <c r="B249" s="13" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="13"/>
       <c r="B250" s="13" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="13"/>
       <c r="B251" s="13" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="13"/>
       <c r="B252" s="13" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="13"/>
       <c r="B253" s="13" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="13"/>
       <c r="B254" s="13" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="13"/>
       <c r="B255" s="13" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="13"/>
       <c r="B256" s="13" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="13"/>
       <c r="B257" s="13" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="13"/>
       <c r="B258" s="13" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="13"/>
       <c r="B259" s="13" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="13"/>
       <c r="B260" s="13" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="13"/>
       <c r="B261" s="13" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="13"/>
       <c r="B262" s="13" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="13"/>
       <c r="B263" s="13" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="13"/>
       <c r="B264" s="13" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="13"/>
       <c r="B265" s="13" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="13"/>
       <c r="B266" s="13" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="13"/>
       <c r="B267" s="13" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="13"/>
       <c r="B268" s="13" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="13"/>
       <c r="B269" s="13" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="13"/>
       <c r="B270" s="13" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="13"/>
       <c r="B271" s="13" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="13"/>
       <c r="B272" s="13" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="13"/>
       <c r="B273" s="13" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="13"/>
       <c r="B274" s="13" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="13"/>
       <c r="B275" s="13" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="13"/>
       <c r="B276" s="13" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="13"/>
       <c r="B277" s="13" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="13"/>
       <c r="B278" s="13" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="13"/>
       <c r="B279" s="13" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="13"/>
       <c r="B280" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="13"/>
       <c r="B281" s="13" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="13"/>
       <c r="B282" s="13" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="13"/>
       <c r="B283" s="13" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="13"/>
       <c r="B284" s="13" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="13"/>
       <c r="B285" s="13" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="13"/>
       <c r="B286" s="13" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="13"/>
       <c r="B287" s="13" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="13"/>
       <c r="B288" s="13" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="13"/>
       <c r="B289" s="13" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="13"/>
       <c r="B290" s="13" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="13"/>
       <c r="B291" s="13" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="13"/>
       <c r="B292" s="13" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="13"/>
       <c r="B293" s="13" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="13"/>
       <c r="B294" s="13" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="13"/>
       <c r="B295" s="13" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="13"/>
       <c r="B296" s="13" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="13"/>
       <c r="B297" s="13" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="13"/>
       <c r="B298" s="13" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="13"/>
       <c r="B299" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="13"/>
       <c r="B300" s="13" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="13"/>
       <c r="B301" s="13" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="13"/>
       <c r="B302" s="13" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="13"/>
       <c r="B303" s="13" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="13"/>
       <c r="B304" s="13" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="13"/>
       <c r="B305" s="13" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="13"/>
       <c r="B306" s="13" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="13"/>
       <c r="B307" s="13" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="13"/>
       <c r="B308" s="13" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="13"/>
       <c r="B309" s="13" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="13"/>
       <c r="B310" s="13" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="13"/>
       <c r="B311" s="13" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="13"/>
       <c r="B312" s="13" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="13"/>
       <c r="B313" s="13" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="13"/>
       <c r="B314" s="13" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="13"/>
       <c r="B315" s="13" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="13"/>
       <c r="B316" s="13" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="13"/>
       <c r="B317" s="13" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="13"/>
       <c r="B318" s="13" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="13"/>
       <c r="B319" s="13" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="13"/>
       <c r="B320" s="13" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="13"/>
       <c r="B321" s="13" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="13"/>
       <c r="B322" s="13" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="13"/>
       <c r="B323" s="13" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="13"/>
       <c r="B324" s="13" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="13"/>
       <c r="B325" s="13" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="13"/>
       <c r="B326" s="13" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="13"/>
       <c r="B327" s="13" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="13"/>
       <c r="B328" s="13" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="13"/>
       <c r="B329" s="13" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="13"/>
       <c r="B330" s="13" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="13"/>
       <c r="B331" s="13" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="13"/>
       <c r="B332" s="13" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="13"/>
       <c r="B333" s="13" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="13"/>
       <c r="B334" s="13" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="13"/>
       <c r="B335" s="13" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="13"/>
       <c r="B336" s="13" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="13"/>
       <c r="B337" s="13" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="13"/>
       <c r="B338" s="13" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="13"/>
       <c r="B339" s="13" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="13"/>
       <c r="B340" s="13" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="13"/>
       <c r="B341" s="13" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="13"/>
       <c r="B342" s="13" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="13"/>
       <c r="B343" s="13" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="13"/>
       <c r="B344" s="13" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="13"/>
       <c r="B345" s="13" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="13"/>
       <c r="B346" s="13" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="13"/>
       <c r="B347" s="13" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="13"/>
       <c r="B348" s="13" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="13"/>
       <c r="B349" s="13" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="13"/>
       <c r="B350" s="13" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="13"/>
       <c r="B351" s="13" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="13"/>
       <c r="B352" s="13" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="13"/>
       <c r="B353" s="13" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="13"/>
       <c r="B354" s="13" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="13"/>
       <c r="B355" s="13" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="13"/>
       <c r="B356" s="13" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="13"/>
       <c r="B357" s="13" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="13"/>
       <c r="B358" s="13" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="13"/>
       <c r="B359" s="13" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="13"/>
       <c r="B360" s="13" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="13"/>
       <c r="B361" s="13" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="13"/>
       <c r="B362" s="13" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="13"/>
       <c r="B363" s="13" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="13"/>
       <c r="B364" s="13" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="13"/>
       <c r="B365" s="13" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="13"/>
       <c r="B366" s="13" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="13"/>
       <c r="B367" s="13" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="13"/>
       <c r="B368" s="13" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="13"/>
       <c r="B369" s="13" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="13"/>
       <c r="B370" s="13" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="13"/>
       <c r="B371" s="13" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="13"/>
       <c r="B372" s="13" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="13"/>
       <c r="B373" s="13" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="13"/>
       <c r="B374" s="13" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="13"/>
       <c r="B375" s="13" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="13"/>
       <c r="B376" s="13" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="13"/>
       <c r="B377" s="13" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="13"/>
       <c r="B378" s="13" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="13"/>
       <c r="B379" s="13" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="13"/>
       <c r="B380" s="13" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="13"/>
       <c r="B381" s="13" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="13"/>
       <c r="B382" s="13" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="13"/>
       <c r="B383" s="13" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="13"/>
       <c r="B384" s="13" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="13"/>
       <c r="B385" s="13" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="13"/>
       <c r="B386" s="13" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="13"/>
       <c r="B387" s="13" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="13"/>
       <c r="B388" s="13" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="13"/>
       <c r="B389" s="13" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="13"/>
       <c r="B390" s="13" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="13"/>
       <c r="B391" s="13" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="13"/>
       <c r="B392" s="13" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="13"/>
       <c r="B393" s="13" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="13"/>
       <c r="B394" s="13" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="13"/>
       <c r="B395" s="13" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="13"/>
       <c r="B396" s="13" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="13"/>
       <c r="B397" s="13" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="13"/>
       <c r="B398" s="13" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="13"/>
       <c r="B399" s="13" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="13"/>
       <c r="B400" s="13" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="13"/>
       <c r="B401" s="13" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="13"/>
       <c r="B402" s="13" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="13"/>
       <c r="B403" s="13" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="13"/>
       <c r="B404" s="13" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="13"/>
       <c r="B405" s="13" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" s="13"/>
       <c r="B406" s="13" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" s="13"/>
       <c r="B407" s="13" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="13"/>
       <c r="B408" s="13" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="13"/>
       <c r="B409" s="13" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="13"/>
       <c r="B410" s="13" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="13"/>
       <c r="B411" s="13" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="13"/>
       <c r="B412" s="13" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="13"/>
       <c r="B413" s="13" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="13"/>
       <c r="B414" s="13" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="13"/>
       <c r="B415" s="13" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="13"/>
       <c r="B416" s="13" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="13"/>
       <c r="B417" s="13" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="13"/>
       <c r="B418" s="13" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="13"/>
       <c r="B419" s="13" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="13"/>
       <c r="B420" s="13" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="13"/>
       <c r="B421" s="13" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="13"/>
       <c r="B422" s="13" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="13"/>
       <c r="B423" s="13" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="13"/>
       <c r="B424" s="13" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="13"/>
       <c r="B425" s="13" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="13"/>
       <c r="B426" s="13" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="13"/>
       <c r="B427" s="13" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="13"/>
       <c r="B428" s="13" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="13"/>
       <c r="B429" s="13" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="13"/>
       <c r="B430" s="13" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="13"/>
       <c r="B431" s="13" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="13"/>
       <c r="B432" s="13" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="13"/>
       <c r="B433" s="13" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="13"/>
       <c r="B434" s="13" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="13"/>
       <c r="B435" s="13" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="13"/>
       <c r="B436" s="13" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="13"/>
       <c r="B437" s="13" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="13"/>
       <c r="B438" s="13" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="13"/>
       <c r="B439" s="13" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="13"/>
       <c r="B440" s="13" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="13"/>
       <c r="B441" s="13" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="13"/>
       <c r="B442" s="13" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="13"/>
       <c r="B443" s="13" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="13"/>
       <c r="B444" s="13" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="13"/>
       <c r="B445" s="13" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="13"/>
       <c r="B446" s="13" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="13"/>
       <c r="B447" s="13" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="13"/>
       <c r="B448" s="13" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="13"/>
       <c r="B449" s="13" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="13"/>
       <c r="B450" s="13" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="13"/>
       <c r="B451" s="13" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="13"/>
       <c r="B452" s="13" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="13"/>
       <c r="B453" s="13" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="13"/>
       <c r="B454" s="13" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" s="13"/>
       <c r="B455" s="13" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="13"/>
       <c r="B456" s="13" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="13"/>
       <c r="B457" s="13" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="13"/>
       <c r="B458" s="13" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="13"/>
       <c r="B459" s="13" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="13"/>
       <c r="B460" s="13" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" s="13"/>
       <c r="B461" s="13" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" s="13"/>
       <c r="B462" s="13" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" s="13"/>
       <c r="B463" s="13" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" s="13"/>
       <c r="B464" s="13" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="13"/>
       <c r="B465" s="13" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="13"/>
       <c r="B466" s="13" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" s="13"/>
       <c r="B467" s="13" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="13"/>
       <c r="B468" s="13" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" s="13"/>
       <c r="B469" s="13" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="13"/>
       <c r="B470" s="13" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" s="13"/>
       <c r="B471" s="13" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" s="13"/>
       <c r="B472" s="13" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="13"/>
       <c r="B473" s="13" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="13"/>
       <c r="B474" s="13" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" s="13"/>
       <c r="B475" s="13" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" s="13"/>
       <c r="B476" s="13" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" s="13"/>
       <c r="B477" s="13" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" s="13"/>
       <c r="B478" s="13" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="13"/>
       <c r="B479" s="13" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="13"/>
       <c r="B480" s="13" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="13"/>
       <c r="B481" s="13" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="13"/>
       <c r="B482" s="13" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" s="13"/>
       <c r="B483" s="13" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" s="13"/>
       <c r="B484" s="13" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" s="13"/>
       <c r="B485" s="13" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="13"/>
       <c r="B486" s="13" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="13"/>
       <c r="B487" s="13" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" s="13"/>
       <c r="B488" s="13" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" s="13"/>
       <c r="B489" s="13" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" s="13"/>
       <c r="B490" s="13" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" s="13"/>
       <c r="B491" s="13" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" s="13"/>
       <c r="B492" s="13" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" s="13"/>
       <c r="B493" s="13" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" s="13"/>
       <c r="B494" s="13" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" s="13"/>
       <c r="B495" s="13" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" s="13"/>
       <c r="B496" s="13" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" s="13"/>
       <c r="B497" s="13" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="13"/>
       <c r="B498" s="13" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" s="13"/>
       <c r="B499" s="13" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" s="13"/>
       <c r="B500" s="13" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" s="13"/>
       <c r="B501" s="13" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" s="13"/>
       <c r="B502" s="13" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" s="13"/>
       <c r="B503" s="13" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" s="13"/>
       <c r="B504" s="13" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" s="13"/>
       <c r="B505" s="13" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" s="13"/>
       <c r="B506" s="13" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" s="13"/>
       <c r="B507" s="13" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" s="13"/>
       <c r="B508" s="13" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" s="13"/>
       <c r="B509" s="13" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" s="13"/>
       <c r="B510" s="13" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" s="13"/>
       <c r="B511" s="13" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" s="13"/>
       <c r="B512" s="13" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" s="13"/>
       <c r="B513" s="13" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" s="13"/>
       <c r="B514" s="13" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" s="13"/>
       <c r="B515" s="13" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" s="13"/>
       <c r="B516" s="13" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" s="13"/>
       <c r="B517" s="13" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" s="13"/>
       <c r="B518" s="13" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" s="13"/>
       <c r="B519" s="13" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" s="13"/>
       <c r="B520" s="13" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" s="13"/>
       <c r="B521" s="13" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" s="13"/>
       <c r="B522" s="13" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" s="13"/>
       <c r="B523" s="13" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" s="13"/>
       <c r="B524" s="13" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" s="13"/>
       <c r="B525" s="13" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" s="13"/>
       <c r="B526" s="13" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" s="13"/>
       <c r="B527" s="13" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" s="13"/>
       <c r="B528" s="13" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" s="13"/>
       <c r="B529" s="13" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" s="13"/>
       <c r="B530" s="13" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" s="13"/>
       <c r="B531" s="13" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" s="13"/>
       <c r="B532" s="13" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" s="13"/>
       <c r="B533" s="13" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" s="13"/>
       <c r="B534" s="13" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" s="13"/>
       <c r="B535" s="13" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" s="13"/>
       <c r="B536" s="13" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" s="13"/>
       <c r="B537" s="13" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" s="13"/>
       <c r="B538" s="13" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" s="13"/>
       <c r="B539" s="13" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" s="13"/>
       <c r="B540" s="13" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" s="13"/>
       <c r="B541" s="13" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" s="13"/>
       <c r="B542" s="13" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" s="13"/>
       <c r="B543" s="13" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" s="13"/>
       <c r="B544" s="13" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" s="13"/>
       <c r="B545" s="13" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" s="13"/>
       <c r="B546" s="13" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" s="13"/>
       <c r="B547" s="13" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" s="13"/>
       <c r="B548" s="13" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" s="13"/>
       <c r="B549" s="13" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" s="13"/>
       <c r="B550" s="13" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" s="13"/>
       <c r="B551" s="13" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" s="13"/>
       <c r="B552" s="13" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" s="13"/>
       <c r="B553" s="13" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" s="13"/>
       <c r="B554" s="13" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" s="13"/>
       <c r="B555" s="13" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" s="13"/>
       <c r="B556" s="13" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" s="13"/>
       <c r="B557" s="13" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" s="13"/>
       <c r="B558" s="13" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" s="13"/>
       <c r="B559" s="13" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" s="13"/>
       <c r="B560" s="13" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" s="13"/>
       <c r="B561" s="13" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" s="13"/>
       <c r="B562" s="13" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" s="13"/>
       <c r="B563" s="13" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" s="13"/>
       <c r="B564" s="13" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" s="13"/>
       <c r="B565" s="13" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" s="13"/>
       <c r="B566" s="13" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" s="13"/>
       <c r="B567" s="13" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" s="13"/>
       <c r="B568" s="13" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" s="13"/>
       <c r="B569" s="13" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" s="13"/>
       <c r="B570" s="13" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" s="13"/>
       <c r="B571" s="13" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" s="13"/>
       <c r="B572" s="13" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" s="13"/>
       <c r="B573" s="13" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" s="13"/>
       <c r="B574" s="13" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" s="13"/>
       <c r="B575" s="13" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" s="13"/>
       <c r="B576" s="13" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" s="13"/>
       <c r="B577" s="13" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" s="13"/>
       <c r="B578" s="13" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" s="13"/>
       <c r="B579" s="13" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" s="13"/>
       <c r="B580" s="13" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" s="13"/>
       <c r="B581" s="13" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" s="13"/>
       <c r="B582" s="13" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" s="13"/>
       <c r="B583" s="13" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" s="13"/>
       <c r="B584" s="13" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" s="13"/>
       <c r="B585" s="13" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" s="13"/>
       <c r="B586" s="13" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" s="13"/>
       <c r="B587" s="13" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" s="13"/>
       <c r="B588" s="13" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" s="13"/>
       <c r="B589" s="13" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" s="13"/>
       <c r="B590" s="13" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" s="13"/>
       <c r="B591" s="13" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" s="13"/>
       <c r="B592" s="13" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" s="13"/>
       <c r="B593" s="13" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" s="13"/>
       <c r="B594" s="13" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" s="13"/>
       <c r="B595" s="13" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" s="13"/>
       <c r="B596" s="13" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" s="13"/>
       <c r="B597" s="13" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" s="13"/>
       <c r="B598" s="13" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" s="13"/>
       <c r="B599" s="13" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" s="13"/>
       <c r="B600" s="13" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" s="13"/>
       <c r="B601" s="13" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" s="13"/>
       <c r="B602" s="13" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" s="13"/>
       <c r="B603" s="13" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" s="13"/>
       <c r="B604" s="13" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" s="13"/>
       <c r="B605" s="13" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" s="13"/>
       <c r="B606" s="13" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" s="13"/>
       <c r="B607" s="13" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" s="13"/>
       <c r="B608" s="13" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" s="13"/>
       <c r="B609" s="13" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" s="13"/>
       <c r="B610" s="13" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" s="13"/>
       <c r="B611" s="13" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" s="13"/>
       <c r="B612" s="13" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" s="13"/>
       <c r="B613" s="13" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" s="13"/>
       <c r="B614" s="13" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" s="13"/>
       <c r="B615" s="13" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" s="13"/>
       <c r="B616" s="13" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" s="13"/>
       <c r="B617" s="13" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" s="13"/>
       <c r="B618" s="13" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" s="13"/>
       <c r="B619" s="13" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" s="13"/>
       <c r="B620" s="13" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" s="13"/>
       <c r="B621" s="13" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" s="13"/>
       <c r="B622" s="13" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" s="13"/>
       <c r="B623" s="13" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" s="13"/>
       <c r="B624" s="13" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625" s="13"/>
       <c r="B625" s="13" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" s="13"/>
       <c r="B626" s="13" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627" s="13"/>
       <c r="B627" s="13" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" s="13"/>
       <c r="B628" s="13" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629" s="13"/>
       <c r="B629" s="13" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630" s="13"/>
       <c r="B630" s="13" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631" s="13"/>
       <c r="B631" s="13" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632" s="13"/>
       <c r="B632" s="13" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633" s="13"/>
       <c r="B633" s="13" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634" s="13"/>
       <c r="B634" s="13" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635" s="13"/>
       <c r="B635" s="13" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636" s="13"/>
       <c r="B636" s="13" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637" s="13"/>
       <c r="B637" s="13" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638" s="13"/>
       <c r="B638" s="13" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A639" s="13"/>
       <c r="B639" s="13" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640" s="13"/>
       <c r="B640" s="13" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641" s="13"/>
       <c r="B641" s="13" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642" s="13"/>
       <c r="B642" s="13" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643" s="13"/>
       <c r="B643" s="13" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644" s="13"/>
       <c r="B644" s="13" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645" s="13"/>
       <c r="B645" s="13" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646" s="13"/>
       <c r="B646" s="13" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647" s="13"/>
       <c r="B647" s="13" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648" s="13"/>
       <c r="B648" s="13" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649" s="13"/>
       <c r="B649" s="13" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650" s="13"/>
       <c r="B650" s="13" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A651" s="13"/>
       <c r="B651" s="13" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652" s="13"/>
       <c r="B652" s="13" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653" s="13"/>
       <c r="B653" s="13" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A654" s="13"/>
       <c r="B654" s="13" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A655" s="13"/>
       <c r="B655" s="13" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A656" s="13"/>
       <c r="B656" s="13" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A657" s="13"/>
       <c r="B657" s="13" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A658" s="13"/>
       <c r="B658" s="13" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A659" s="13"/>
       <c r="B659" s="13" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A660" s="13"/>
       <c r="B660" s="13" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A661" s="13"/>
       <c r="B661" s="13" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A662" s="13"/>
       <c r="B662" s="13" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A663" s="13"/>
       <c r="B663" s="13" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A664" s="13"/>
       <c r="B664" s="13" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A665" s="13"/>
       <c r="B665" s="13" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A666" s="13"/>
       <c r="B666" s="13" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A667" s="13"/>
       <c r="B667" s="13" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A668" s="13"/>
       <c r="B668" s="13" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A669" s="13"/>
       <c r="B669" s="13" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A670" s="13"/>
       <c r="B670" s="13" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A671" s="13"/>
       <c r="B671" s="13" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A672" s="13"/>
       <c r="B672" s="13" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A673" s="13"/>
       <c r="B673" s="13" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A674" s="13"/>
       <c r="B674" s="13" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A675" s="13"/>
       <c r="B675" s="13" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A676" s="13"/>
       <c r="B676" s="13" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A677" s="13"/>
       <c r="B677" s="13" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A678" s="13"/>
       <c r="B678" s="13" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A679" s="13"/>
       <c r="B679" s="13" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A680" s="13"/>
       <c r="B680" s="13" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A681" s="13"/>
       <c r="B681" s="13" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A682" s="13"/>
       <c r="B682" s="13" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A683" s="13"/>
       <c r="B683" s="13" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A684" s="13"/>
       <c r="B684" s="13" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A685" s="13"/>
       <c r="B685" s="13" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A686" s="13"/>
       <c r="B686" s="13" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A687" s="13"/>
       <c r="B687" s="13" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A688" s="13"/>
       <c r="B688" s="13" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A689" s="13"/>
       <c r="B689" s="13" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A690" s="13"/>
       <c r="B690" s="13" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A691" s="13"/>
       <c r="B691" s="13" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A692" s="13"/>
       <c r="B692" s="13" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A693" s="13"/>
       <c r="B693" s="13" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A694" s="13"/>
       <c r="B694" s="13" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A695" s="13"/>
       <c r="B695" s="13" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A696" s="13"/>
       <c r="B696" s="13" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A697" s="13"/>
       <c r="B697" s="13" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A698" s="13"/>
       <c r="B698" s="13" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A699" s="13"/>
       <c r="B699" s="13" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A700" s="13"/>
       <c r="B700" s="13" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A701" s="13"/>
       <c r="B701" s="13" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A702" s="13"/>
       <c r="B702" s="13" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A703" s="13"/>
       <c r="B703" s="13" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A704" s="13"/>
       <c r="B704" s="13" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A705" s="13"/>
       <c r="B705" s="13" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A706" s="13"/>
       <c r="B706" s="13" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A707" s="13"/>
       <c r="B707" s="13" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A708" s="13"/>
       <c r="B708" s="13" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A709" s="13"/>
       <c r="B709" s="13" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A710" s="13"/>
       <c r="B710" s="13" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A711" s="13"/>
       <c r="B711" s="13" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A712" s="13"/>
       <c r="B712" s="13" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A713" s="13"/>
       <c r="B713" s="13" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A714" s="13"/>
       <c r="B714" s="13" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A715" s="13"/>
       <c r="B715" s="13" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A716" s="13"/>
       <c r="B716" s="13" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A717" s="13"/>
       <c r="B717" s="13" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A718" s="13"/>
       <c r="B718" s="13" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A719" s="13"/>
       <c r="B719" s="13" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A720" s="13"/>
       <c r="B720" s="13" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A721" s="13"/>
       <c r="B721" s="13" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A722" s="13"/>
       <c r="B722" s="13" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A723" s="13"/>
       <c r="B723" s="13" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A724" s="13"/>
       <c r="B724" s="13" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A725" s="13"/>
       <c r="B725" s="13" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A726" s="13"/>
       <c r="B726" s="13" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A727" s="13"/>
       <c r="B727" s="13" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A728" s="13"/>
       <c r="B728" s="13" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A729" s="13"/>
       <c r="B729" s="13" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A730" s="13"/>
       <c r="B730" s="13" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A731" s="13"/>
       <c r="B731" s="13" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A732" s="13"/>
       <c r="B732" s="13" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A733" s="13"/>
       <c r="B733" s="13" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A734" s="13"/>
       <c r="B734" s="13" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A735" s="13"/>
       <c r="B735" s="13" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A736" s="13"/>
       <c r="B736" s="13" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A737" s="13"/>
       <c r="B737" s="13" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A738" s="13"/>
       <c r="B738" s="13" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A739" s="13"/>
       <c r="B739" s="13" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A740" s="13"/>
       <c r="B740" s="13" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A741" s="13"/>
       <c r="B741" s="13" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A742" s="13"/>
       <c r="B742" s="13" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A743" s="13"/>
       <c r="B743" s="13" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A744" s="13"/>
       <c r="B744" s="13" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A745" s="13"/>
       <c r="B745" s="13" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A746" s="13"/>
       <c r="B746" s="13" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A747" s="13"/>
       <c r="B747" s="13" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A748" s="13"/>
       <c r="B748" s="13" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A749" s="13"/>
       <c r="B749" s="13" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A750" s="13"/>
       <c r="B750" s="13" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A751" s="13"/>
       <c r="B751" s="13" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A752" s="13"/>
       <c r="B752" s="13" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A753" s="13"/>
       <c r="B753" s="13" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A754" s="13"/>
       <c r="B754" s="13" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A755" s="13"/>
       <c r="B755" s="13" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A756" s="13"/>
       <c r="B756" s="13" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A757" s="13"/>
       <c r="B757" s="13" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A758" s="13"/>
       <c r="B758" s="13" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A759" s="13"/>
       <c r="B759" s="13" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A760" s="13"/>
       <c r="B760" s="13" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A761" s="13"/>
       <c r="B761" s="13" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A762" s="13"/>
       <c r="B762" s="13" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A763" s="13"/>
       <c r="B763" s="13" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A764" s="13"/>
       <c r="B764" s="13" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A765" s="13"/>
       <c r="B765" s="13" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A766" s="13"/>
       <c r="B766" s="13" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A767" s="13"/>
       <c r="B767" s="13" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A768" s="13"/>
       <c r="B768" s="13" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A769" s="13"/>
       <c r="B769" s="13" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A770" s="13"/>
       <c r="B770" s="13" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A771" s="13"/>
       <c r="B771" s="13" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A772" s="13"/>
       <c r="B772" s="13" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A773" s="13"/>
       <c r="B773" s="13" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A774" s="13"/>
       <c r="B774" s="13" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A775" s="13"/>
       <c r="B775" s="13" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A776" s="13"/>
       <c r="B776" s="13" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A777" s="13"/>
       <c r="B777" s="13" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A778" s="13"/>
       <c r="B778" s="13" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A779" s="13"/>
       <c r="B779" s="13" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A780" s="13"/>
       <c r="B780" s="13" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A781" s="13"/>
       <c r="B781" s="13" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A782" s="13"/>
       <c r="B782" s="13" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A783" s="13"/>
       <c r="B783" s="13" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A784" s="13"/>
       <c r="B784" s="13" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A785" s="13"/>
       <c r="B785" s="13" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A786" s="13"/>
       <c r="B786" s="13" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A787" s="13"/>
       <c r="B787" s="13" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A788" s="13"/>
       <c r="B788" s="13" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A789" s="13"/>
       <c r="B789" s="13" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A790" s="13"/>
       <c r="B790" s="13" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A791" s="13"/>
       <c r="B791" s="13" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A792" s="13"/>
       <c r="B792" s="13" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A793" s="13"/>
       <c r="B793" s="13" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A794" s="13"/>
       <c r="B794" s="13" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A795" s="13"/>
       <c r="B795" s="13" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A796" s="13"/>
       <c r="B796" s="13" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A797" s="13"/>
       <c r="B797" s="13" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A798" s="13"/>
       <c r="B798" s="13" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A799" s="13"/>
       <c r="B799" s="13" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A800" s="13"/>
       <c r="B800" s="13" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A801" s="13"/>
       <c r="B801" s="13" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A802" s="13"/>
       <c r="B802" s="13" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="803" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A803" s="13"/>
       <c r="B803" s="13" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="804" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A804" s="13"/>
       <c r="B804" s="13" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A805" s="13"/>
       <c r="B805" s="13" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="806" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A806" s="13"/>
       <c r="B806" s="13" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="807" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A807" s="13"/>
       <c r="B807" s="13" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A808" s="13"/>
       <c r="B808" s="13" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="809" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A809" s="13"/>
       <c r="B809" s="13" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A810" s="13"/>
       <c r="B810" s="13" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A811" s="13"/>
       <c r="B811" s="13" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="812" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A812" s="13"/>
       <c r="B812" s="13" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="813" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A813" s="13"/>
       <c r="B813" s="13" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="814" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A814" s="13"/>
       <c r="B814" s="13" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="815" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A815" s="13"/>
       <c r="B815" s="13" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="816" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A816" s="13"/>
       <c r="B816" s="13" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A817" s="13"/>
       <c r="B817" s="13" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="818" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A818" s="13"/>
       <c r="B818" s="13" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="819" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A819" s="13"/>
       <c r="B819" s="13" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="820" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A820" s="13"/>
       <c r="B820" s="13" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="821" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A821" s="13"/>
       <c r="B821" s="13" t="s">
         <v>872</v>
@@ -16020,27 +16025,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I244" sqref="I244"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H142" sqref="H142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6328125" customWidth="1"/>
-    <col min="4" max="4" width="14.6328125" customWidth="1"/>
-    <col min="9" max="9" width="13.81640625" style="21" customWidth="1"/>
-    <col min="10" max="10" width="10.81640625" style="21"/>
-    <col min="11" max="11" width="18.6328125" customWidth="1"/>
-    <col min="12" max="12" width="19.1796875" customWidth="1"/>
-    <col min="13" max="13" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.36328125" customWidth="1"/>
-    <col min="15" max="15" width="15.81640625" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="9" max="9" width="13.875" style="21" customWidth="1"/>
+    <col min="10" max="10" width="10.875" style="21"/>
+    <col min="11" max="11" width="18.625" customWidth="1"/>
+    <col min="12" max="12" width="19.125" customWidth="1"/>
+    <col min="13" max="13" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.375" customWidth="1"/>
+    <col min="15" max="15" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16102,7 +16108,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
         <v>42962</v>
       </c>
@@ -16144,7 +16150,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>42962</v>
       </c>
@@ -16171,7 +16177,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>42962</v>
       </c>
@@ -16198,7 +16204,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>42962</v>
       </c>
@@ -16225,7 +16231,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>42962</v>
       </c>
@@ -16261,7 +16267,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>42962</v>
       </c>
@@ -16288,7 +16294,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>42962</v>
       </c>
@@ -16315,7 +16321,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>42962</v>
       </c>
@@ -16357,7 +16363,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>42962</v>
       </c>
@@ -16384,7 +16390,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>42962</v>
       </c>
@@ -16420,7 +16426,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>42962</v>
       </c>
@@ -16447,7 +16453,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>42962</v>
       </c>
@@ -16489,7 +16495,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>42962</v>
       </c>
@@ -16516,7 +16522,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <v>42962</v>
       </c>
@@ -16558,7 +16564,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <v>42962</v>
       </c>
@@ -16585,7 +16591,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>42962</v>
       </c>
@@ -16612,7 +16618,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <v>42962</v>
       </c>
@@ -16639,7 +16645,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <v>42962</v>
       </c>
@@ -16666,7 +16672,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <v>42962</v>
       </c>
@@ -16705,7 +16711,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20">
         <v>42962</v>
       </c>
@@ -16732,7 +16738,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>42962</v>
       </c>
@@ -16759,7 +16765,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
         <v>42962</v>
       </c>
@@ -16786,7 +16792,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>42962</v>
       </c>
@@ -16819,7 +16825,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <v>42962</v>
       </c>
@@ -16858,7 +16864,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
         <v>42962</v>
       </c>
@@ -16885,7 +16891,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
         <v>42962</v>
       </c>
@@ -16912,7 +16918,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20">
         <v>42962</v>
       </c>
@@ -16939,7 +16945,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="20">
         <v>42962</v>
       </c>
@@ -16975,7 +16981,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="20">
         <v>42962</v>
       </c>
@@ -17002,7 +17008,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20">
         <v>42962</v>
       </c>
@@ -17029,7 +17035,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
         <v>42962</v>
       </c>
@@ -17068,7 +17074,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20">
         <v>42962</v>
       </c>
@@ -17095,7 +17101,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
         <v>42962</v>
       </c>
@@ -17122,7 +17128,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20">
         <v>42962</v>
       </c>
@@ -17149,7 +17155,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20">
         <v>42962</v>
       </c>
@@ -17176,7 +17182,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
         <v>42962</v>
       </c>
@@ -17215,7 +17221,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="20">
         <v>42962</v>
       </c>
@@ -17242,7 +17248,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20">
         <v>42962</v>
       </c>
@@ -17272,7 +17278,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="20">
         <v>42962</v>
       </c>
@@ -17308,7 +17314,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="20">
         <v>42962</v>
       </c>
@@ -17335,7 +17341,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20">
         <v>42962</v>
       </c>
@@ -17362,7 +17368,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="20">
         <v>42962</v>
       </c>
@@ -17389,7 +17395,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="20">
         <v>42962</v>
       </c>
@@ -17428,7 +17434,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="20">
         <v>42962</v>
       </c>
@@ -17455,7 +17461,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="20">
         <v>42962</v>
       </c>
@@ -17491,7 +17497,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="20">
         <v>42962</v>
       </c>
@@ -17518,7 +17524,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20">
         <v>42962</v>
       </c>
@@ -17545,7 +17551,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="20">
         <v>42962</v>
       </c>
@@ -17572,7 +17578,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20">
         <v>42962</v>
       </c>
@@ -17599,7 +17605,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="20">
         <v>42962</v>
       </c>
@@ -17626,7 +17632,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="20">
         <v>42962</v>
       </c>
@@ -17662,7 +17668,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="20">
         <v>42962</v>
       </c>
@@ -17689,7 +17695,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20">
         <v>42962</v>
       </c>
@@ -17716,7 +17722,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="20">
         <v>42962</v>
       </c>
@@ -17743,7 +17749,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="20">
         <v>42962</v>
       </c>
@@ -17770,7 +17776,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="20">
         <v>42962</v>
       </c>
@@ -17806,7 +17812,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="20">
         <v>42962</v>
       </c>
@@ -17833,7 +17839,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="20">
         <v>42962</v>
       </c>
@@ -17860,7 +17866,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="20">
         <v>42962</v>
       </c>
@@ -17896,7 +17902,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="20">
         <v>42962</v>
       </c>
@@ -17923,7 +17929,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="20">
         <v>42962</v>
       </c>
@@ -17962,7 +17968,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="20">
         <v>42962</v>
       </c>
@@ -17989,7 +17995,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="20">
         <v>42962</v>
       </c>
@@ -18025,7 +18031,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="20">
         <v>42962</v>
       </c>
@@ -18052,7 +18058,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="20">
         <v>42962</v>
       </c>
@@ -18079,7 +18085,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="20">
         <v>42962</v>
       </c>
@@ -18106,7 +18112,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="20">
         <v>42962</v>
       </c>
@@ -18129,7 +18135,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="20">
         <v>42962</v>
       </c>
@@ -18156,7 +18162,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="20">
         <v>42962</v>
       </c>
@@ -18192,7 +18198,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="20">
         <v>42962</v>
       </c>
@@ -18219,7 +18225,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="20">
         <v>42962</v>
       </c>
@@ -18246,7 +18252,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="20">
         <v>42962</v>
       </c>
@@ -18273,7 +18279,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="20">
         <v>42962</v>
       </c>
@@ -18300,7 +18306,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="20">
         <v>42962</v>
       </c>
@@ -18327,7 +18333,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="20">
         <v>42962</v>
       </c>
@@ -18354,7 +18360,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="20">
         <v>42962</v>
       </c>
@@ -18381,7 +18387,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="20">
         <v>42962</v>
       </c>
@@ -18408,7 +18414,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="20">
         <v>42962</v>
       </c>
@@ -18435,7 +18441,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="20">
         <v>42962</v>
       </c>
@@ -18471,7 +18477,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="20">
         <v>42962</v>
       </c>
@@ -18498,7 +18504,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="20">
         <v>42962</v>
       </c>
@@ -18525,7 +18531,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="20">
         <v>42962</v>
       </c>
@@ -18564,7 +18570,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="20">
         <v>42962</v>
       </c>
@@ -18591,7 +18597,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="20">
         <v>42962</v>
       </c>
@@ -18618,7 +18624,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="20">
         <v>42962</v>
       </c>
@@ -18645,7 +18651,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="20">
         <v>42962</v>
       </c>
@@ -18681,7 +18687,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="20">
         <v>42962</v>
       </c>
@@ -18708,7 +18714,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="20">
         <v>42962</v>
       </c>
@@ -18735,7 +18741,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="20">
         <v>42962</v>
       </c>
@@ -18774,7 +18780,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="20">
         <v>42962</v>
       </c>
@@ -18801,7 +18807,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="20">
         <v>42962</v>
       </c>
@@ -18828,7 +18834,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="20">
         <v>42962</v>
       </c>
@@ -18864,7 +18870,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="20">
         <v>42962</v>
       </c>
@@ -18891,7 +18897,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="20">
         <v>42962</v>
       </c>
@@ -18927,7 +18933,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="20">
         <v>42962</v>
       </c>
@@ -18954,7 +18960,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="20">
         <v>42962</v>
       </c>
@@ -18993,7 +18999,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="20">
         <v>42962</v>
       </c>
@@ -19020,7 +19026,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="20">
         <v>42962</v>
       </c>
@@ -19047,7 +19053,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="20">
         <v>42962</v>
       </c>
@@ -19074,7 +19080,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="20">
         <v>42962</v>
       </c>
@@ -19101,7 +19107,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="20">
         <v>42962</v>
       </c>
@@ -19128,7 +19134,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="20">
         <v>42962</v>
       </c>
@@ -19167,7 +19173,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="20">
         <v>42962</v>
       </c>
@@ -19194,7 +19200,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="20">
         <v>42962</v>
       </c>
@@ -19221,7 +19227,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="20">
         <v>42962</v>
       </c>
@@ -19248,7 +19254,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="20">
         <v>42962</v>
       </c>
@@ -19275,7 +19281,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="20">
         <v>42962</v>
       </c>
@@ -19302,7 +19308,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="20">
         <v>42962</v>
       </c>
@@ -19329,7 +19335,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="20">
         <v>42962</v>
       </c>
@@ -19356,7 +19362,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="20">
         <v>42962</v>
       </c>
@@ -19383,7 +19389,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="20">
         <v>42962</v>
       </c>
@@ -19410,7 +19416,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="20">
         <v>42962</v>
       </c>
@@ -19437,7 +19443,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="20">
         <v>42962</v>
       </c>
@@ -19464,7 +19470,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="20">
         <v>42962</v>
       </c>
@@ -19491,7 +19497,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="20">
         <v>42962</v>
       </c>
@@ -19527,7 +19533,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="20">
         <v>42962</v>
       </c>
@@ -19554,7 +19560,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="20">
         <v>42962</v>
       </c>
@@ -19581,7 +19587,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="20">
         <v>42962</v>
       </c>
@@ -19608,7 +19614,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="20">
         <v>42962</v>
       </c>
@@ -19644,7 +19650,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="20">
         <v>42962</v>
       </c>
@@ -19671,7 +19677,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="20">
         <v>42962</v>
       </c>
@@ -19698,7 +19704,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="20">
         <v>42962</v>
       </c>
@@ -19728,7 +19734,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="20">
         <v>42962</v>
       </c>
@@ -19755,7 +19761,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="20">
         <v>42962</v>
       </c>
@@ -19782,7 +19788,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="20">
         <v>42962</v>
       </c>
@@ -19809,7 +19815,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="20">
         <v>42962</v>
       </c>
@@ -19848,7 +19854,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="20">
         <v>42962</v>
       </c>
@@ -19875,7 +19881,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="20">
         <v>42962</v>
       </c>
@@ -19911,7 +19917,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="20">
         <v>42962</v>
       </c>
@@ -19938,7 +19944,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="20">
         <v>42962</v>
       </c>
@@ -19974,7 +19980,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="20">
         <v>42962</v>
       </c>
@@ -20001,7 +20007,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="20">
         <v>42962</v>
       </c>
@@ -20024,7 +20030,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="20">
         <v>42962</v>
       </c>
@@ -20051,7 +20057,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="20">
         <v>42962</v>
       </c>
@@ -20078,7 +20084,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="20">
         <v>42962</v>
       </c>
@@ -20108,7 +20114,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="20">
         <v>42962</v>
       </c>
@@ -20135,7 +20141,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="20">
         <v>42962</v>
       </c>
@@ -20165,7 +20171,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="20">
         <v>42962</v>
       </c>
@@ -20192,7 +20198,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="20">
         <v>42962</v>
       </c>
@@ -20228,7 +20234,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="20">
         <v>42962</v>
       </c>
@@ -20255,7 +20261,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="20">
         <v>42962</v>
       </c>
@@ -20294,7 +20300,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="20">
         <v>42962</v>
       </c>
@@ -20321,7 +20327,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="20">
         <v>42962</v>
       </c>
@@ -20357,7 +20363,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="20">
         <v>42962</v>
       </c>
@@ -20396,7 +20402,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="20">
         <v>42962</v>
       </c>
@@ -20423,7 +20429,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="20">
         <v>42962</v>
       </c>
@@ -20459,7 +20465,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="20">
         <v>42962</v>
       </c>
@@ -20486,7 +20492,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="20">
         <v>42962</v>
       </c>
@@ -20513,7 +20519,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="20">
         <v>42962</v>
       </c>
@@ -20540,7 +20546,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="20">
         <v>42962</v>
       </c>
@@ -20567,7 +20573,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="20">
         <v>42962</v>
       </c>
@@ -20594,7 +20600,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="20">
         <v>42962</v>
       </c>
@@ -20621,7 +20627,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="20">
         <v>42962</v>
       </c>
@@ -20648,7 +20654,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="20">
         <v>42962</v>
       </c>
@@ -20675,7 +20681,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="20">
         <v>42962</v>
       </c>
@@ -20702,7 +20708,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="20">
         <v>42962</v>
       </c>
@@ -20729,7 +20735,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="20">
         <v>42962</v>
       </c>
@@ -20768,7 +20774,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="20">
         <v>42962</v>
       </c>
@@ -20795,7 +20801,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="20">
         <v>42962</v>
       </c>
@@ -20831,7 +20837,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="20">
         <v>42962</v>
       </c>
@@ -20858,7 +20864,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="20">
         <v>42962</v>
       </c>
@@ -20885,7 +20891,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="20">
         <v>42962</v>
       </c>
@@ -20912,7 +20918,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="20">
         <v>42962</v>
       </c>
@@ -20948,7 +20954,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="20">
         <v>42962</v>
       </c>
@@ -20975,7 +20981,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="20">
         <v>42962</v>
       </c>
@@ -21002,7 +21008,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="20">
         <v>42962</v>
       </c>
@@ -21041,7 +21047,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="20">
         <v>42962</v>
       </c>
@@ -21068,7 +21074,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="20">
         <v>42962</v>
       </c>
@@ -21104,7 +21110,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="20">
         <v>42962</v>
       </c>
@@ -21131,7 +21137,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="20">
         <v>42962</v>
       </c>
@@ -21167,7 +21173,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="20">
         <v>42962</v>
       </c>
@@ -21194,7 +21200,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="20">
         <v>42962</v>
       </c>
@@ -21221,7 +21227,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="20">
         <v>42962</v>
       </c>
@@ -21248,7 +21254,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="20">
         <v>42962</v>
       </c>
@@ -21275,7 +21281,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="20">
         <v>42962</v>
       </c>
@@ -21314,7 +21320,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="20">
         <v>42962</v>
       </c>
@@ -21341,7 +21347,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="20">
         <v>42962</v>
       </c>
@@ -21368,7 +21374,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="20">
         <v>42962</v>
       </c>
@@ -21395,7 +21401,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="20">
         <v>42962</v>
       </c>
@@ -21422,7 +21428,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="20">
         <v>42962</v>
       </c>
@@ -21449,7 +21455,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="20">
         <v>42962</v>
       </c>
@@ -21485,7 +21491,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="20">
         <v>42962</v>
       </c>
@@ -21512,7 +21518,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="20">
         <v>42962</v>
       </c>
@@ -21539,7 +21545,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="20">
         <v>42962</v>
       </c>
@@ -21566,7 +21572,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="20">
         <v>42962</v>
       </c>
@@ -21593,7 +21599,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="20">
         <v>42962</v>
       </c>
@@ -21620,7 +21626,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="20">
         <v>42962</v>
       </c>
@@ -21647,7 +21653,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="20">
         <v>42962</v>
       </c>
@@ -21674,7 +21680,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="20">
         <v>42962</v>
       </c>
@@ -21697,7 +21703,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="20">
         <v>42962</v>
       </c>
@@ -21724,7 +21730,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="20">
         <v>42962</v>
       </c>
@@ -21754,7 +21760,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="20">
         <v>42962</v>
       </c>
@@ -21781,7 +21787,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="20">
         <v>42962</v>
       </c>
@@ -21820,7 +21826,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="20">
         <v>42962</v>
       </c>
@@ -21847,7 +21853,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="20">
         <v>42962</v>
       </c>
@@ -21877,7 +21883,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="20">
         <v>42962</v>
       </c>
@@ -21904,7 +21910,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="20">
         <v>42962</v>
       </c>
@@ -21934,7 +21940,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="20">
         <v>42962</v>
       </c>
@@ -21961,7 +21967,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="20">
         <v>42962</v>
       </c>
@@ -21988,7 +21994,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="20">
         <v>42962</v>
       </c>
@@ -22015,7 +22021,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="20">
         <v>42962</v>
       </c>
@@ -22045,7 +22051,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="20">
         <v>42962</v>
       </c>
@@ -22072,7 +22078,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="20">
         <v>42962</v>
       </c>
@@ -22102,7 +22108,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="20">
         <v>42962</v>
       </c>
@@ -22129,7 +22135,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="20">
         <v>42962</v>
       </c>
@@ -22156,7 +22162,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="20">
         <v>42962</v>
       </c>
@@ -22186,7 +22192,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="20">
         <v>42962</v>
       </c>
@@ -22213,7 +22219,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="20">
         <v>42962</v>
       </c>
@@ -22243,7 +22249,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="20">
         <v>42962</v>
       </c>
@@ -22270,7 +22276,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="20">
         <v>42962</v>
       </c>
@@ -22300,7 +22306,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="20">
         <v>42962</v>
       </c>
@@ -22327,7 +22333,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="20">
         <v>42962</v>
       </c>
@@ -22357,7 +22363,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="20">
         <v>42962</v>
       </c>
@@ -22384,7 +22390,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="20">
         <v>42962</v>
       </c>
@@ -22414,7 +22420,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="20">
         <v>42962</v>
       </c>
@@ -22441,7 +22447,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="20">
         <v>42962</v>
       </c>
@@ -22471,7 +22477,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="20">
         <v>42962</v>
       </c>
@@ -22498,7 +22504,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="20">
         <v>42962</v>
       </c>
@@ -22528,7 +22534,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="20">
         <v>42962</v>
       </c>
@@ -22555,7 +22561,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="20">
         <v>42962</v>
       </c>
@@ -22585,7 +22591,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="20">
         <v>42962</v>
       </c>
@@ -22612,7 +22618,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="20">
         <v>42962</v>
       </c>
@@ -22642,7 +22648,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="20">
         <v>42962</v>
       </c>
@@ -22669,7 +22675,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="20">
         <v>42962</v>
       </c>
@@ -22699,7 +22705,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="20">
         <v>42962</v>
       </c>
@@ -22726,7 +22732,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="20">
         <v>42962</v>
       </c>
@@ -22753,7 +22759,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="20">
         <v>42962</v>
       </c>
@@ -22783,7 +22789,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="20">
         <v>42962</v>
       </c>
@@ -22810,7 +22816,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="20">
         <v>42962</v>
       </c>
@@ -22840,7 +22846,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="20">
         <v>42962</v>
       </c>
@@ -22867,7 +22873,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="20">
         <v>42962</v>
       </c>
@@ -22897,7 +22903,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="20">
         <v>42962</v>
       </c>
@@ -22924,7 +22930,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="20">
         <v>42962</v>
       </c>
@@ -22954,7 +22960,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="20">
         <v>42962</v>
       </c>
@@ -22981,7 +22987,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="20">
         <v>42962</v>
       </c>
@@ -23011,7 +23017,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="20">
         <v>42962</v>
       </c>
@@ -23041,7 +23047,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" s="20">
         <v>42962</v>
       </c>
@@ -23071,7 +23077,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="20">
         <v>42962</v>
       </c>
@@ -23098,7 +23104,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="20">
         <v>42962</v>
       </c>
@@ -23128,7 +23134,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="20">
         <v>42962</v>
       </c>
@@ -23155,7 +23161,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="20">
         <v>42962</v>
       </c>
@@ -23185,7 +23191,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="20">
         <v>42962</v>
       </c>
@@ -23212,7 +23218,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="20">
         <v>42962</v>
       </c>
@@ -23242,7 +23248,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="20">
         <v>42962</v>
       </c>
@@ -23269,7 +23275,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="20">
         <v>42962</v>
       </c>
@@ -23299,7 +23305,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="20">
         <v>42962</v>
       </c>
@@ -23326,7 +23332,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="20">
         <v>42962</v>
       </c>
@@ -23356,7 +23362,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="20">
         <v>42962</v>
       </c>
@@ -23383,7 +23389,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="20">
         <v>42962</v>
       </c>
@@ -23413,7 +23419,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="20">
         <v>42962</v>
       </c>
@@ -23440,7 +23446,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="20">
         <v>42962</v>
       </c>
@@ -23470,7 +23476,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="20">
         <v>42962</v>
       </c>
@@ -23497,7 +23503,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="20">
         <v>42962</v>
       </c>
@@ -23527,7 +23533,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="20">
         <v>42962</v>
       </c>
@@ -23554,7 +23560,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="20">
         <v>42962</v>
       </c>
@@ -23584,7 +23590,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="20">
         <v>42962</v>
       </c>
@@ -23611,7 +23617,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="20">
         <v>42962</v>
       </c>
@@ -23641,7 +23647,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="20">
         <v>42962</v>
       </c>
@@ -23668,7 +23674,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="20">
         <v>42962</v>
       </c>
@@ -23691,7 +23697,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="20">
         <v>42962</v>
       </c>
@@ -23718,7 +23724,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="20">
         <v>42962</v>
       </c>
@@ -23748,7 +23754,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="20">
         <v>42962</v>
       </c>
@@ -23775,7 +23781,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="20">
         <v>42962</v>
       </c>
@@ -23805,7 +23811,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="20">
         <v>42962</v>
       </c>
@@ -23835,7 +23841,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="20">
         <v>42962</v>
       </c>
@@ -23862,7 +23868,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="20">
         <v>42962</v>
       </c>
@@ -23892,7 +23898,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="20">
         <v>42962</v>
       </c>
@@ -23919,7 +23925,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="20">
         <v>42962</v>
       </c>
@@ -23949,7 +23955,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="20">
         <v>42962</v>
       </c>
@@ -23976,7 +23982,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="20">
         <v>42962</v>
       </c>
@@ -24006,7 +24012,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="20">
         <v>42962</v>
       </c>
@@ -24033,7 +24039,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="20">
         <v>42962</v>
       </c>
@@ -24063,7 +24069,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="20">
         <v>42962</v>
       </c>
@@ -24090,7 +24096,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="20">
         <v>42962</v>
       </c>
@@ -24120,7 +24126,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="20">
         <v>42962</v>
       </c>
@@ -24147,7 +24153,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="20">
         <v>42962</v>
       </c>
@@ -24177,7 +24183,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="20">
         <v>42962</v>
       </c>
@@ -24204,7 +24210,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="20">
         <v>42962</v>
       </c>
@@ -24234,7 +24240,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="20">
         <v>42962</v>
       </c>
@@ -24261,7 +24267,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="20">
         <v>42962</v>
       </c>
@@ -24291,7 +24297,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="20">
         <v>42962</v>
       </c>
@@ -24321,7 +24327,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="20">
         <v>42962</v>
       </c>
@@ -24348,7 +24354,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="20">
         <v>42962</v>
       </c>
@@ -24378,7 +24384,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="20">
         <v>42962</v>
       </c>
@@ -24405,7 +24411,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="20">
         <v>42962</v>
       </c>
@@ -24435,7 +24441,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="20">
         <v>42962</v>
       </c>
@@ -24465,7 +24471,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="20">
         <v>42962</v>
       </c>
@@ -24492,7 +24498,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="20">
         <v>42962</v>
       </c>
@@ -24522,7 +24528,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="20">
         <v>42962</v>
       </c>
@@ -24549,7 +24555,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="20">
         <v>42962</v>
       </c>
@@ -24579,7 +24585,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="20">
         <v>42962</v>
       </c>
@@ -24609,7 +24615,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="20">
         <v>42962</v>
       </c>
@@ -24636,7 +24642,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="20">
         <v>42962</v>
       </c>
@@ -24666,7 +24672,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="20">
         <v>42962</v>
       </c>
@@ -24693,7 +24699,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="20">
         <v>42962</v>
       </c>
@@ -24723,7 +24729,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="20">
         <v>42962</v>
       </c>
@@ -24750,7 +24756,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="20">
         <v>42962</v>
       </c>
@@ -24780,7 +24786,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="20">
         <v>42962</v>
       </c>
@@ -24807,7 +24813,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="20">
         <v>42962</v>
       </c>
@@ -24837,7 +24843,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="20">
         <v>42962</v>
       </c>
@@ -24864,7 +24870,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="20">
         <v>42962</v>
       </c>
@@ -24894,7 +24900,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="20">
         <v>42962</v>
       </c>
@@ -24921,7 +24927,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="20">
         <v>42962</v>
       </c>
@@ -24944,14 +24950,21 @@
         <v>61</v>
       </c>
     </row>
-    <row r="305" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="305" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G305">
         <f>SUM(G2:G304)</f>
         <v>10000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T305" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:T305" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="HC"/>
+        <filter val="HC'"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -24970,23 +24983,23 @@
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.1796875" customWidth="1"/>
-    <col min="5" max="6" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.1796875" customWidth="1"/>
-    <col min="8" max="8" width="3.1796875" customWidth="1"/>
-    <col min="9" max="9" width="5.1796875" customWidth="1"/>
-    <col min="10" max="11" width="4.1796875" customWidth="1"/>
-    <col min="12" max="12" width="3.1796875" customWidth="1"/>
-    <col min="13" max="13" width="4.1796875" customWidth="1"/>
-    <col min="14" max="14" width="5.1796875" customWidth="1"/>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.125" customWidth="1"/>
+    <col min="5" max="6" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.125" customWidth="1"/>
+    <col min="8" max="8" width="3.125" customWidth="1"/>
+    <col min="9" max="9" width="5.125" customWidth="1"/>
+    <col min="10" max="11" width="4.125" customWidth="1"/>
+    <col min="12" max="12" width="3.125" customWidth="1"/>
+    <col min="13" max="13" width="4.125" customWidth="1"/>
+    <col min="14" max="14" width="5.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>964</v>
       </c>
@@ -24994,7 +25007,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>961</v>
       </c>
@@ -25041,7 +25054,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>1</v>
       </c>
@@ -25078,7 +25091,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>2</v>
       </c>
@@ -25115,7 +25128,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>3</v>
       </c>
@@ -25152,7 +25165,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
         <v>4</v>
       </c>
@@ -25183,7 +25196,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
         <v>5</v>
       </c>
@@ -25208,7 +25221,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>963</v>
       </c>
@@ -25255,7 +25268,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>961</v>
       </c>
@@ -25275,7 +25288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>67</v>
       </c>
@@ -25289,7 +25302,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>933</v>
       </c>
@@ -25303,7 +25316,7 @@
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>51</v>
       </c>
@@ -25317,7 +25330,7 @@
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>909</v>
       </c>
@@ -25335,7 +25348,7 @@
       </c>
       <c r="F16" s="31"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>65</v>
       </c>
@@ -25351,7 +25364,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>71</v>
       </c>
@@ -25363,7 +25376,7 @@
       </c>
       <c r="F18" s="31"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>908</v>
       </c>
@@ -25379,7 +25392,7 @@
       <c r="E19" s="31"/>
       <c r="F19" s="31"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>77</v>
       </c>
@@ -25395,7 +25408,7 @@
       <c r="E20" s="31"/>
       <c r="F20" s="31"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>53</v>
       </c>
@@ -25409,7 +25422,7 @@
       </c>
       <c r="F21" s="31"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
         <v>75</v>
       </c>
@@ -25421,7 +25434,7 @@
       <c r="E22" s="31"/>
       <c r="F22" s="31"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
         <v>55</v>
       </c>
@@ -25456,35 +25469,35 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="19" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.36328125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.81640625" customWidth="1"/>
+    <col min="22" max="22" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>964</v>
       </c>
@@ -25492,7 +25505,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>961</v>
       </c>
@@ -25569,7 +25582,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>1</v>
       </c>
@@ -25628,7 +25641,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>2</v>
       </c>
@@ -25681,7 +25694,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>3</v>
       </c>
@@ -25724,7 +25737,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
         <v>4</v>
       </c>
@@ -25761,7 +25774,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
         <v>5</v>
       </c>
@@ -25794,7 +25807,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>963</v>
       </c>
@@ -25871,7 +25884,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>961</v>
       </c>
@@ -25891,7 +25904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>270</v>
       </c>
@@ -25903,7 +25916,7 @@
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>390</v>
       </c>
@@ -25915,7 +25928,7 @@
       </c>
       <c r="F16" s="27"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>392</v>
       </c>
@@ -25929,7 +25942,7 @@
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>395</v>
       </c>
@@ -25941,7 +25954,7 @@
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>473</v>
       </c>
@@ -25957,7 +25970,7 @@
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>557</v>
       </c>
@@ -25971,7 +25984,7 @@
       </c>
       <c r="F20" s="27"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>567</v>
       </c>
@@ -25983,7 +25996,7 @@
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>573</v>
       </c>
@@ -25995,7 +26008,7 @@
       <c r="E22" s="27"/>
       <c r="F22" s="27"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>587</v>
       </c>
@@ -26009,7 +26022,7 @@
       <c r="E23" s="27"/>
       <c r="F23" s="27"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>618</v>
       </c>
@@ -26021,7 +26034,7 @@
       <c r="E24" s="27"/>
       <c r="F24" s="27"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>949</v>
       </c>
@@ -26037,7 +26050,7 @@
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>862</v>
       </c>

--- a/R/LE1 2017_08_15 (House 14) (LN)_newcleaned.xlsx
+++ b/R/LE1 2017_08_15 (House 14) (LN)_newcleaned.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr hidePivotFieldList="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TMSI-REL\Desktop\Zhi Yi's Working Folder\UROPS\R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeozy\Documents\Yale-NUS\Y3S1\UROPS\UROPS\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE5D360-56B6-477C-9574-652A051FDAFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3EED1570-B609-4551-B9F8-E6F2CBC3DAB6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="570" windowWidth="25050" windowHeight="15435" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="565" yWindow="565" windowWidth="25045" windowHeight="15430" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Site" sheetId="1" r:id="rId1"/>
@@ -22,18 +22,13 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'LE1'!$A$1:$T$305</definedName>
   </definedNames>
-  <calcPr calcId="179021" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -10160,7 +10155,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable40" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable40" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:O10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="20">
     <pivotField numFmtId="164" showAll="0"/>
@@ -10307,7 +10302,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable41" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable41" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:Y10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="20">
     <pivotField numFmtId="164" showAll="0"/>
@@ -10779,30 +10774,30 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="32.5" customWidth="1"/>
+    <col min="1" max="2" width="32.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>873</v>
       </c>
       <c r="B1" s="15"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>874</v>
       </c>
       <c r="B2" s="16"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>875</v>
       </c>
       <c r="B3" s="16"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>876</v>
       </c>
@@ -10810,7 +10805,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>878</v>
       </c>
@@ -10818,13 +10813,13 @@
         <v>879</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>880</v>
       </c>
       <c r="B6" s="16"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>881</v>
       </c>
@@ -10832,13 +10827,13 @@
         <v>965</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>882</v>
       </c>
       <c r="B8" s="16"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>883</v>
       </c>
@@ -10846,13 +10841,13 @@
         <v>966</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>884</v>
       </c>
       <c r="B10" s="16"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>885</v>
       </c>
@@ -10860,13 +10855,13 @@
         <v>967</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>886</v>
       </c>
       <c r="B12" s="16"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>887</v>
       </c>
@@ -10874,7 +10869,7 @@
         <v>42962</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>888</v>
       </c>
@@ -10882,7 +10877,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>889</v>
       </c>
@@ -10890,7 +10885,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>890</v>
       </c>
@@ -10898,13 +10893,13 @@
         <v>969</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>891</v>
       </c>
       <c r="B17" s="17"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>892</v>
       </c>
@@ -10912,7 +10907,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
         <v>893</v>
       </c>
@@ -10920,13 +10915,13 @@
         <v>972</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>894</v>
       </c>
       <c r="B20" s="16"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>895</v>
       </c>
@@ -10934,13 +10929,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
         <v>896</v>
       </c>
       <c r="B22" s="16"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="s">
         <v>897</v>
       </c>
@@ -10948,43 +10943,43 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
         <v>898</v>
       </c>
       <c r="B24" s="16"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
         <v>899</v>
       </c>
       <c r="B25" s="16"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
         <v>900</v>
       </c>
       <c r="B26" s="16"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="14" t="s">
         <v>901</v>
       </c>
       <c r="B27" s="16"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
         <v>902</v>
       </c>
       <c r="B28" s="16"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
         <v>903</v>
       </c>
       <c r="B29" s="16"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="14" t="s">
         <v>904</v>
       </c>
@@ -10992,7 +10987,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="14" t="s">
         <v>905</v>
       </c>
@@ -11016,12 +11011,12 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="26.125" customWidth="1"/>
+    <col min="2" max="2" width="26.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>19</v>
       </c>
@@ -11029,7 +11024,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>21</v>
       </c>
@@ -11037,7 +11032,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>23</v>
       </c>
@@ -11045,7 +11040,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>25</v>
       </c>
@@ -11053,7 +11048,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>27</v>
       </c>
@@ -11061,7 +11056,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
@@ -11069,7 +11064,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>31</v>
       </c>
@@ -11077,7 +11072,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>33</v>
       </c>
@@ -11085,7 +11080,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>35</v>
       </c>
@@ -11093,7 +11088,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>37</v>
       </c>
@@ -11101,7 +11096,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>39</v>
       </c>
@@ -11109,7 +11104,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>41</v>
       </c>
@@ -11117,7 +11112,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>43</v>
       </c>
@@ -11125,7 +11120,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>45</v>
       </c>
@@ -11133,7 +11128,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>47</v>
       </c>
@@ -11141,7 +11136,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>49</v>
       </c>
@@ -11149,7 +11144,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>51</v>
       </c>
@@ -11157,7 +11152,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>53</v>
       </c>
@@ -11165,7 +11160,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>55</v>
       </c>
@@ -11173,7 +11168,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>57</v>
       </c>
@@ -11181,7 +11176,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>59</v>
       </c>
@@ -11189,7 +11184,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>61</v>
       </c>
@@ -11197,7 +11192,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>63</v>
       </c>
@@ -11205,7 +11200,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>65</v>
       </c>
@@ -11213,7 +11208,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>67</v>
       </c>
@@ -11221,7 +11216,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
         <v>69</v>
       </c>
@@ -11229,7 +11224,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>71</v>
       </c>
@@ -11237,7 +11232,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
         <v>73</v>
       </c>
@@ -11245,7 +11240,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>75</v>
       </c>
@@ -11253,7 +11248,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
         <v>77</v>
       </c>
@@ -11261,7 +11256,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
         <v>79</v>
       </c>
@@ -11269,7 +11264,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
         <v>81</v>
       </c>
@@ -11277,7 +11272,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>83</v>
       </c>
@@ -11285,4729 +11280,4729 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="B34" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="12"/>
       <c r="B35" s="12" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="12"/>
       <c r="B36" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
       <c r="B37" s="12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="12"/>
       <c r="B38" s="12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="12"/>
       <c r="B39" s="12" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="12"/>
       <c r="B40" s="12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="12"/>
       <c r="B41" s="12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="12"/>
       <c r="B42" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="12"/>
       <c r="B43" s="12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="12"/>
       <c r="B44" s="12" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="12"/>
       <c r="B45" s="12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="12"/>
       <c r="B46" s="12" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="12"/>
       <c r="B47" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="12"/>
       <c r="B48" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="12"/>
       <c r="B49" s="12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="12"/>
       <c r="B50" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="12"/>
       <c r="B51" s="12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="12"/>
       <c r="B52" s="12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="12"/>
       <c r="B53" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="12"/>
       <c r="B54" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="12"/>
       <c r="B55" s="12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="12"/>
       <c r="B56" s="12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="12"/>
       <c r="B57" s="12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="12"/>
       <c r="B58" s="12" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="12"/>
       <c r="B59" s="12" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="12"/>
       <c r="B60" s="12" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="12"/>
       <c r="B61" s="12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="12"/>
       <c r="B62" s="12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="12"/>
       <c r="B63" s="12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="12"/>
       <c r="B64" s="12" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="12"/>
       <c r="B65" s="12" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="12"/>
       <c r="B66" s="12" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="12"/>
       <c r="B67" s="12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="12"/>
       <c r="B68" s="12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="12"/>
       <c r="B69" s="12" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="12"/>
       <c r="B70" s="12" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="12"/>
       <c r="B71" s="12" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="12"/>
       <c r="B72" s="12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="12"/>
       <c r="B73" s="12" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="12"/>
       <c r="B74" s="12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="12"/>
       <c r="B75" s="12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="12"/>
       <c r="B76" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="12"/>
       <c r="B77" s="12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="12"/>
       <c r="B78" s="12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="12"/>
       <c r="B79" s="12" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="12"/>
       <c r="B80" s="12" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="12"/>
       <c r="B81" s="12" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="12"/>
       <c r="B82" s="12" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="12"/>
       <c r="B83" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="12"/>
       <c r="B84" s="12" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="12"/>
       <c r="B85" s="12" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="12"/>
       <c r="B86" s="12" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="12"/>
       <c r="B87" s="12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="12"/>
       <c r="B88" s="12" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="12"/>
       <c r="B89" s="12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="12"/>
       <c r="B90" s="12" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="12"/>
       <c r="B91" s="12" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="12"/>
       <c r="B92" s="12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="12"/>
       <c r="B93" s="12" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="12"/>
       <c r="B94" s="12" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="12"/>
       <c r="B95" s="12" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="12"/>
       <c r="B96" s="12" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="12"/>
       <c r="B97" s="12" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="12"/>
       <c r="B98" s="12" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="12"/>
       <c r="B99" s="12" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="12"/>
       <c r="B100" s="12" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="12"/>
       <c r="B101" s="12" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="12"/>
       <c r="B102" s="12" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="12"/>
       <c r="B103" s="12" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="12"/>
       <c r="B104" s="12" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="12"/>
       <c r="B105" s="12" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="12"/>
       <c r="B106" s="12" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="12"/>
       <c r="B107" s="12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="12"/>
       <c r="B108" s="12" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="12"/>
       <c r="B109" s="12" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="12"/>
       <c r="B110" s="12" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="12"/>
       <c r="B111" s="12" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="12"/>
       <c r="B112" s="12" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="12"/>
       <c r="B113" s="12" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="12"/>
       <c r="B114" s="12" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="12"/>
       <c r="B115" s="12" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="12"/>
       <c r="B116" s="12" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="12"/>
       <c r="B117" s="12" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="12"/>
       <c r="B118" s="12" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="12"/>
       <c r="B119" s="12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="12"/>
       <c r="B120" s="12" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="12"/>
       <c r="B121" s="12" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="12"/>
       <c r="B122" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="12"/>
       <c r="B123" s="12" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="12"/>
       <c r="B124" s="12" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="12"/>
       <c r="B125" s="12" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="12"/>
       <c r="B126" s="12" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="12"/>
       <c r="B127" s="12" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="12"/>
       <c r="B128" s="12" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="12"/>
       <c r="B129" s="12" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="12"/>
       <c r="B130" s="12" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="12"/>
       <c r="B131" s="12" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="12"/>
       <c r="B132" s="12" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="12"/>
       <c r="B133" s="12" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="12"/>
       <c r="B134" s="12" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="12"/>
       <c r="B135" s="12" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="12"/>
       <c r="B136" s="12" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="12"/>
       <c r="B137" s="12" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="12"/>
       <c r="B138" s="12" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="12"/>
       <c r="B139" s="12" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="12"/>
       <c r="B140" s="12" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="12"/>
       <c r="B141" s="12" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="12"/>
       <c r="B142" s="12" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="12"/>
       <c r="B143" s="12" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="12"/>
       <c r="B144" s="12" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="12"/>
       <c r="B145" s="12" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="12"/>
       <c r="B146" s="12" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="12"/>
       <c r="B147" s="12" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="12"/>
       <c r="B148" s="12" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="12"/>
       <c r="B149" s="12" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="12"/>
       <c r="B150" s="12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="12"/>
       <c r="B151" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="12"/>
       <c r="B152" s="12" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="12"/>
       <c r="B153" s="12" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="12"/>
       <c r="B154" s="12" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="12"/>
       <c r="B155" s="12" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="12"/>
       <c r="B156" s="12" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="12"/>
       <c r="B157" s="12" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="12"/>
       <c r="B158" s="12" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="12"/>
       <c r="B159" s="12" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="12"/>
       <c r="B160" s="12" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="12"/>
       <c r="B161" s="12" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="12"/>
       <c r="B162" s="12" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="12"/>
       <c r="B163" s="12" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="12"/>
       <c r="B164" s="12" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="12"/>
       <c r="B165" s="12" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="12"/>
       <c r="B166" s="12" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="12"/>
       <c r="B167" s="12" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="12"/>
       <c r="B168" s="12" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="12"/>
       <c r="B169" s="12" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="12"/>
       <c r="B170" s="12" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="12"/>
       <c r="B171" s="12" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="12"/>
       <c r="B172" s="12" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="12"/>
       <c r="B173" s="12" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="13"/>
       <c r="B174" s="13" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="13"/>
       <c r="B175" s="13" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="13"/>
       <c r="B176" s="13" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="13"/>
       <c r="B177" s="13" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="13"/>
       <c r="B178" s="13" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="13"/>
       <c r="B179" s="13" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="13"/>
       <c r="B180" s="13" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="13"/>
       <c r="B181" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="13"/>
       <c r="B182" s="13" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="13"/>
       <c r="B183" s="13" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="13"/>
       <c r="B184" s="13" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="13"/>
       <c r="B185" s="13" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="13"/>
       <c r="B186" s="13" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="13"/>
       <c r="B187" s="13" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="13"/>
       <c r="B188" s="13" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="13"/>
       <c r="B189" s="13" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="13"/>
       <c r="B190" s="13" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="13"/>
       <c r="B191" s="13" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="13"/>
       <c r="B192" s="13" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="13"/>
       <c r="B193" s="13" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="13"/>
       <c r="B194" s="13" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="13"/>
       <c r="B195" s="13" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="13"/>
       <c r="B196" s="13" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="13"/>
       <c r="B197" s="13" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="13"/>
       <c r="B198" s="13" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="13"/>
       <c r="B199" s="13" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="13"/>
       <c r="B200" s="13" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="13"/>
       <c r="B201" s="13" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="13"/>
       <c r="B202" s="13" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="13"/>
       <c r="B203" s="13" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="13"/>
       <c r="B204" s="13" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="13"/>
       <c r="B205" s="13" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="13"/>
       <c r="B206" s="13" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="13"/>
       <c r="B207" s="13" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="13"/>
       <c r="B208" s="13" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="13"/>
       <c r="B209" s="13" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="13"/>
       <c r="B210" s="13" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="13"/>
       <c r="B211" s="13" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="13"/>
       <c r="B212" s="13" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="13"/>
       <c r="B213" s="13" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="13"/>
       <c r="B214" s="13" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="13"/>
       <c r="B215" s="13" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="13"/>
       <c r="B216" s="13" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="13"/>
       <c r="B217" s="13" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="13"/>
       <c r="B218" s="13" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="13"/>
       <c r="B219" s="13" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="13"/>
       <c r="B220" s="13" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" s="13"/>
       <c r="B221" s="13" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="13"/>
       <c r="B222" s="13" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="13"/>
       <c r="B223" s="13" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="13"/>
       <c r="B224" s="13" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="13"/>
       <c r="B225" s="13" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="13"/>
       <c r="B226" s="13" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="13"/>
       <c r="B227" s="13" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="13"/>
       <c r="B228" s="13" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="13"/>
       <c r="B229" s="13" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" s="13"/>
       <c r="B230" s="13" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="13"/>
       <c r="B231" s="13" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" s="13"/>
       <c r="B232" s="13" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="13"/>
       <c r="B233" s="13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" s="13"/>
       <c r="B234" s="13" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" s="13"/>
       <c r="B235" s="13" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" s="13"/>
       <c r="B236" s="13" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="13"/>
       <c r="B237" s="13" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" s="13"/>
       <c r="B238" s="13" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" s="13"/>
       <c r="B239" s="13" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" s="13"/>
       <c r="B240" s="13" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" s="13"/>
       <c r="B241" s="13" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="13"/>
       <c r="B242" s="13" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" s="13"/>
       <c r="B243" s="13" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="13"/>
       <c r="B244" s="13" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" s="13"/>
       <c r="B245" s="13" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" s="13"/>
       <c r="B246" s="13" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" s="13"/>
       <c r="B247" s="13" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" s="13"/>
       <c r="B248" s="13" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" s="13"/>
       <c r="B249" s="13" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" s="13"/>
       <c r="B250" s="13" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" s="13"/>
       <c r="B251" s="13" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" s="13"/>
       <c r="B252" s="13" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" s="13"/>
       <c r="B253" s="13" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" s="13"/>
       <c r="B254" s="13" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" s="13"/>
       <c r="B255" s="13" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" s="13"/>
       <c r="B256" s="13" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" s="13"/>
       <c r="B257" s="13" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" s="13"/>
       <c r="B258" s="13" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" s="13"/>
       <c r="B259" s="13" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" s="13"/>
       <c r="B260" s="13" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" s="13"/>
       <c r="B261" s="13" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" s="13"/>
       <c r="B262" s="13" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" s="13"/>
       <c r="B263" s="13" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" s="13"/>
       <c r="B264" s="13" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" s="13"/>
       <c r="B265" s="13" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" s="13"/>
       <c r="B266" s="13" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" s="13"/>
       <c r="B267" s="13" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" s="13"/>
       <c r="B268" s="13" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" s="13"/>
       <c r="B269" s="13" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" s="13"/>
       <c r="B270" s="13" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" s="13"/>
       <c r="B271" s="13" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" s="13"/>
       <c r="B272" s="13" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" s="13"/>
       <c r="B273" s="13" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" s="13"/>
       <c r="B274" s="13" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" s="13"/>
       <c r="B275" s="13" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" s="13"/>
       <c r="B276" s="13" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" s="13"/>
       <c r="B277" s="13" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" s="13"/>
       <c r="B278" s="13" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" s="13"/>
       <c r="B279" s="13" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" s="13"/>
       <c r="B280" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" s="13"/>
       <c r="B281" s="13" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" s="13"/>
       <c r="B282" s="13" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" s="13"/>
       <c r="B283" s="13" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" s="13"/>
       <c r="B284" s="13" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" s="13"/>
       <c r="B285" s="13" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" s="13"/>
       <c r="B286" s="13" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" s="13"/>
       <c r="B287" s="13" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" s="13"/>
       <c r="B288" s="13" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" s="13"/>
       <c r="B289" s="13" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" s="13"/>
       <c r="B290" s="13" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" s="13"/>
       <c r="B291" s="13" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" s="13"/>
       <c r="B292" s="13" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" s="13"/>
       <c r="B293" s="13" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" s="13"/>
       <c r="B294" s="13" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" s="13"/>
       <c r="B295" s="13" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" s="13"/>
       <c r="B296" s="13" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" s="13"/>
       <c r="B297" s="13" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" s="13"/>
       <c r="B298" s="13" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" s="13"/>
       <c r="B299" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" s="13"/>
       <c r="B300" s="13" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" s="13"/>
       <c r="B301" s="13" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" s="13"/>
       <c r="B302" s="13" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" s="13"/>
       <c r="B303" s="13" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" s="13"/>
       <c r="B304" s="13" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" s="13"/>
       <c r="B305" s="13" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" s="13"/>
       <c r="B306" s="13" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" s="13"/>
       <c r="B307" s="13" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" s="13"/>
       <c r="B308" s="13" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" s="13"/>
       <c r="B309" s="13" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" s="13"/>
       <c r="B310" s="13" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" s="13"/>
       <c r="B311" s="13" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" s="13"/>
       <c r="B312" s="13" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" s="13"/>
       <c r="B313" s="13" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" s="13"/>
       <c r="B314" s="13" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" s="13"/>
       <c r="B315" s="13" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" s="13"/>
       <c r="B316" s="13" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" s="13"/>
       <c r="B317" s="13" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" s="13"/>
       <c r="B318" s="13" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" s="13"/>
       <c r="B319" s="13" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" s="13"/>
       <c r="B320" s="13" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" s="13"/>
       <c r="B321" s="13" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" s="13"/>
       <c r="B322" s="13" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" s="13"/>
       <c r="B323" s="13" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" s="13"/>
       <c r="B324" s="13" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" s="13"/>
       <c r="B325" s="13" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" s="13"/>
       <c r="B326" s="13" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" s="13"/>
       <c r="B327" s="13" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" s="13"/>
       <c r="B328" s="13" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" s="13"/>
       <c r="B329" s="13" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" s="13"/>
       <c r="B330" s="13" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" s="13"/>
       <c r="B331" s="13" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" s="13"/>
       <c r="B332" s="13" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" s="13"/>
       <c r="B333" s="13" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" s="13"/>
       <c r="B334" s="13" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" s="13"/>
       <c r="B335" s="13" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" s="13"/>
       <c r="B336" s="13" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337" s="13"/>
       <c r="B337" s="13" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338" s="13"/>
       <c r="B338" s="13" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" s="13"/>
       <c r="B339" s="13" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A340" s="13"/>
       <c r="B340" s="13" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" s="13"/>
       <c r="B341" s="13" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" s="13"/>
       <c r="B342" s="13" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" s="13"/>
       <c r="B343" s="13" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" s="13"/>
       <c r="B344" s="13" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" s="13"/>
       <c r="B345" s="13" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A346" s="13"/>
       <c r="B346" s="13" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" s="13"/>
       <c r="B347" s="13" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" s="13"/>
       <c r="B348" s="13" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" s="13"/>
       <c r="B349" s="13" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A350" s="13"/>
       <c r="B350" s="13" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" s="13"/>
       <c r="B351" s="13" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A352" s="13"/>
       <c r="B352" s="13" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" s="13"/>
       <c r="B353" s="13" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" s="13"/>
       <c r="B354" s="13" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" s="13"/>
       <c r="B355" s="13" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" s="13"/>
       <c r="B356" s="13" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A357" s="13"/>
       <c r="B357" s="13" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" s="13"/>
       <c r="B358" s="13" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A359" s="13"/>
       <c r="B359" s="13" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A360" s="13"/>
       <c r="B360" s="13" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361" s="13"/>
       <c r="B361" s="13" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" s="13"/>
       <c r="B362" s="13" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A363" s="13"/>
       <c r="B363" s="13" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A364" s="13"/>
       <c r="B364" s="13" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A365" s="13"/>
       <c r="B365" s="13" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366" s="13"/>
       <c r="B366" s="13" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A367" s="13"/>
       <c r="B367" s="13" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A368" s="13"/>
       <c r="B368" s="13" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A369" s="13"/>
       <c r="B369" s="13" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A370" s="13"/>
       <c r="B370" s="13" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A371" s="13"/>
       <c r="B371" s="13" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A372" s="13"/>
       <c r="B372" s="13" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A373" s="13"/>
       <c r="B373" s="13" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A374" s="13"/>
       <c r="B374" s="13" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A375" s="13"/>
       <c r="B375" s="13" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A376" s="13"/>
       <c r="B376" s="13" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A377" s="13"/>
       <c r="B377" s="13" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A378" s="13"/>
       <c r="B378" s="13" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A379" s="13"/>
       <c r="B379" s="13" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A380" s="13"/>
       <c r="B380" s="13" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A381" s="13"/>
       <c r="B381" s="13" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A382" s="13"/>
       <c r="B382" s="13" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A383" s="13"/>
       <c r="B383" s="13" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A384" s="13"/>
       <c r="B384" s="13" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A385" s="13"/>
       <c r="B385" s="13" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A386" s="13"/>
       <c r="B386" s="13" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A387" s="13"/>
       <c r="B387" s="13" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A388" s="13"/>
       <c r="B388" s="13" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A389" s="13"/>
       <c r="B389" s="13" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A390" s="13"/>
       <c r="B390" s="13" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A391" s="13"/>
       <c r="B391" s="13" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A392" s="13"/>
       <c r="B392" s="13" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A393" s="13"/>
       <c r="B393" s="13" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A394" s="13"/>
       <c r="B394" s="13" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A395" s="13"/>
       <c r="B395" s="13" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A396" s="13"/>
       <c r="B396" s="13" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A397" s="13"/>
       <c r="B397" s="13" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A398" s="13"/>
       <c r="B398" s="13" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A399" s="13"/>
       <c r="B399" s="13" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A400" s="13"/>
       <c r="B400" s="13" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A401" s="13"/>
       <c r="B401" s="13" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A402" s="13"/>
       <c r="B402" s="13" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A403" s="13"/>
       <c r="B403" s="13" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A404" s="13"/>
       <c r="B404" s="13" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A405" s="13"/>
       <c r="B405" s="13" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A406" s="13"/>
       <c r="B406" s="13" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A407" s="13"/>
       <c r="B407" s="13" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A408" s="13"/>
       <c r="B408" s="13" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A409" s="13"/>
       <c r="B409" s="13" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A410" s="13"/>
       <c r="B410" s="13" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A411" s="13"/>
       <c r="B411" s="13" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A412" s="13"/>
       <c r="B412" s="13" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A413" s="13"/>
       <c r="B413" s="13" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A414" s="13"/>
       <c r="B414" s="13" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A415" s="13"/>
       <c r="B415" s="13" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A416" s="13"/>
       <c r="B416" s="13" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A417" s="13"/>
       <c r="B417" s="13" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A418" s="13"/>
       <c r="B418" s="13" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A419" s="13"/>
       <c r="B419" s="13" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A420" s="13"/>
       <c r="B420" s="13" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A421" s="13"/>
       <c r="B421" s="13" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A422" s="13"/>
       <c r="B422" s="13" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A423" s="13"/>
       <c r="B423" s="13" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A424" s="13"/>
       <c r="B424" s="13" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A425" s="13"/>
       <c r="B425" s="13" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A426" s="13"/>
       <c r="B426" s="13" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A427" s="13"/>
       <c r="B427" s="13" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A428" s="13"/>
       <c r="B428" s="13" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A429" s="13"/>
       <c r="B429" s="13" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A430" s="13"/>
       <c r="B430" s="13" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A431" s="13"/>
       <c r="B431" s="13" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A432" s="13"/>
       <c r="B432" s="13" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A433" s="13"/>
       <c r="B433" s="13" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A434" s="13"/>
       <c r="B434" s="13" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A435" s="13"/>
       <c r="B435" s="13" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A436" s="13"/>
       <c r="B436" s="13" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A437" s="13"/>
       <c r="B437" s="13" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A438" s="13"/>
       <c r="B438" s="13" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A439" s="13"/>
       <c r="B439" s="13" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A440" s="13"/>
       <c r="B440" s="13" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A441" s="13"/>
       <c r="B441" s="13" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A442" s="13"/>
       <c r="B442" s="13" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A443" s="13"/>
       <c r="B443" s="13" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A444" s="13"/>
       <c r="B444" s="13" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A445" s="13"/>
       <c r="B445" s="13" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A446" s="13"/>
       <c r="B446" s="13" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A447" s="13"/>
       <c r="B447" s="13" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A448" s="13"/>
       <c r="B448" s="13" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A449" s="13"/>
       <c r="B449" s="13" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A450" s="13"/>
       <c r="B450" s="13" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A451" s="13"/>
       <c r="B451" s="13" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A452" s="13"/>
       <c r="B452" s="13" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A453" s="13"/>
       <c r="B453" s="13" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A454" s="13"/>
       <c r="B454" s="13" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A455" s="13"/>
       <c r="B455" s="13" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A456" s="13"/>
       <c r="B456" s="13" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A457" s="13"/>
       <c r="B457" s="13" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A458" s="13"/>
       <c r="B458" s="13" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A459" s="13"/>
       <c r="B459" s="13" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A460" s="13"/>
       <c r="B460" s="13" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A461" s="13"/>
       <c r="B461" s="13" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A462" s="13"/>
       <c r="B462" s="13" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A463" s="13"/>
       <c r="B463" s="13" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A464" s="13"/>
       <c r="B464" s="13" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A465" s="13"/>
       <c r="B465" s="13" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A466" s="13"/>
       <c r="B466" s="13" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A467" s="13"/>
       <c r="B467" s="13" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A468" s="13"/>
       <c r="B468" s="13" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A469" s="13"/>
       <c r="B469" s="13" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A470" s="13"/>
       <c r="B470" s="13" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A471" s="13"/>
       <c r="B471" s="13" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A472" s="13"/>
       <c r="B472" s="13" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A473" s="13"/>
       <c r="B473" s="13" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A474" s="13"/>
       <c r="B474" s="13" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A475" s="13"/>
       <c r="B475" s="13" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A476" s="13"/>
       <c r="B476" s="13" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A477" s="13"/>
       <c r="B477" s="13" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A478" s="13"/>
       <c r="B478" s="13" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A479" s="13"/>
       <c r="B479" s="13" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A480" s="13"/>
       <c r="B480" s="13" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A481" s="13"/>
       <c r="B481" s="13" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A482" s="13"/>
       <c r="B482" s="13" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A483" s="13"/>
       <c r="B483" s="13" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A484" s="13"/>
       <c r="B484" s="13" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A485" s="13"/>
       <c r="B485" s="13" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A486" s="13"/>
       <c r="B486" s="13" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A487" s="13"/>
       <c r="B487" s="13" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A488" s="13"/>
       <c r="B488" s="13" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A489" s="13"/>
       <c r="B489" s="13" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A490" s="13"/>
       <c r="B490" s="13" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A491" s="13"/>
       <c r="B491" s="13" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A492" s="13"/>
       <c r="B492" s="13" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A493" s="13"/>
       <c r="B493" s="13" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A494" s="13"/>
       <c r="B494" s="13" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A495" s="13"/>
       <c r="B495" s="13" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A496" s="13"/>
       <c r="B496" s="13" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A497" s="13"/>
       <c r="B497" s="13" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A498" s="13"/>
       <c r="B498" s="13" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A499" s="13"/>
       <c r="B499" s="13" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A500" s="13"/>
       <c r="B500" s="13" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A501" s="13"/>
       <c r="B501" s="13" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A502" s="13"/>
       <c r="B502" s="13" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A503" s="13"/>
       <c r="B503" s="13" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A504" s="13"/>
       <c r="B504" s="13" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A505" s="13"/>
       <c r="B505" s="13" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A506" s="13"/>
       <c r="B506" s="13" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A507" s="13"/>
       <c r="B507" s="13" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A508" s="13"/>
       <c r="B508" s="13" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A509" s="13"/>
       <c r="B509" s="13" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A510" s="13"/>
       <c r="B510" s="13" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A511" s="13"/>
       <c r="B511" s="13" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A512" s="13"/>
       <c r="B512" s="13" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A513" s="13"/>
       <c r="B513" s="13" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A514" s="13"/>
       <c r="B514" s="13" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A515" s="13"/>
       <c r="B515" s="13" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A516" s="13"/>
       <c r="B516" s="13" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A517" s="13"/>
       <c r="B517" s="13" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A518" s="13"/>
       <c r="B518" s="13" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A519" s="13"/>
       <c r="B519" s="13" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A520" s="13"/>
       <c r="B520" s="13" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A521" s="13"/>
       <c r="B521" s="13" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A522" s="13"/>
       <c r="B522" s="13" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A523" s="13"/>
       <c r="B523" s="13" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A524" s="13"/>
       <c r="B524" s="13" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A525" s="13"/>
       <c r="B525" s="13" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A526" s="13"/>
       <c r="B526" s="13" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A527" s="13"/>
       <c r="B527" s="13" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A528" s="13"/>
       <c r="B528" s="13" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A529" s="13"/>
       <c r="B529" s="13" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A530" s="13"/>
       <c r="B530" s="13" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A531" s="13"/>
       <c r="B531" s="13" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A532" s="13"/>
       <c r="B532" s="13" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A533" s="13"/>
       <c r="B533" s="13" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A534" s="13"/>
       <c r="B534" s="13" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A535" s="13"/>
       <c r="B535" s="13" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A536" s="13"/>
       <c r="B536" s="13" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A537" s="13"/>
       <c r="B537" s="13" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A538" s="13"/>
       <c r="B538" s="13" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A539" s="13"/>
       <c r="B539" s="13" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A540" s="13"/>
       <c r="B540" s="13" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A541" s="13"/>
       <c r="B541" s="13" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A542" s="13"/>
       <c r="B542" s="13" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A543" s="13"/>
       <c r="B543" s="13" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A544" s="13"/>
       <c r="B544" s="13" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A545" s="13"/>
       <c r="B545" s="13" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A546" s="13"/>
       <c r="B546" s="13" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A547" s="13"/>
       <c r="B547" s="13" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A548" s="13"/>
       <c r="B548" s="13" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A549" s="13"/>
       <c r="B549" s="13" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A550" s="13"/>
       <c r="B550" s="13" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A551" s="13"/>
       <c r="B551" s="13" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A552" s="13"/>
       <c r="B552" s="13" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A553" s="13"/>
       <c r="B553" s="13" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A554" s="13"/>
       <c r="B554" s="13" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A555" s="13"/>
       <c r="B555" s="13" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A556" s="13"/>
       <c r="B556" s="13" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A557" s="13"/>
       <c r="B557" s="13" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A558" s="13"/>
       <c r="B558" s="13" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A559" s="13"/>
       <c r="B559" s="13" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A560" s="13"/>
       <c r="B560" s="13" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A561" s="13"/>
       <c r="B561" s="13" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A562" s="13"/>
       <c r="B562" s="13" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A563" s="13"/>
       <c r="B563" s="13" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A564" s="13"/>
       <c r="B564" s="13" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A565" s="13"/>
       <c r="B565" s="13" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A566" s="13"/>
       <c r="B566" s="13" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A567" s="13"/>
       <c r="B567" s="13" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A568" s="13"/>
       <c r="B568" s="13" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A569" s="13"/>
       <c r="B569" s="13" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A570" s="13"/>
       <c r="B570" s="13" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A571" s="13"/>
       <c r="B571" s="13" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A572" s="13"/>
       <c r="B572" s="13" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A573" s="13"/>
       <c r="B573" s="13" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A574" s="13"/>
       <c r="B574" s="13" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A575" s="13"/>
       <c r="B575" s="13" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A576" s="13"/>
       <c r="B576" s="13" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A577" s="13"/>
       <c r="B577" s="13" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A578" s="13"/>
       <c r="B578" s="13" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A579" s="13"/>
       <c r="B579" s="13" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A580" s="13"/>
       <c r="B580" s="13" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A581" s="13"/>
       <c r="B581" s="13" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A582" s="13"/>
       <c r="B582" s="13" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A583" s="13"/>
       <c r="B583" s="13" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A584" s="13"/>
       <c r="B584" s="13" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A585" s="13"/>
       <c r="B585" s="13" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A586" s="13"/>
       <c r="B586" s="13" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A587" s="13"/>
       <c r="B587" s="13" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A588" s="13"/>
       <c r="B588" s="13" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A589" s="13"/>
       <c r="B589" s="13" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A590" s="13"/>
       <c r="B590" s="13" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A591" s="13"/>
       <c r="B591" s="13" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A592" s="13"/>
       <c r="B592" s="13" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A593" s="13"/>
       <c r="B593" s="13" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A594" s="13"/>
       <c r="B594" s="13" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A595" s="13"/>
       <c r="B595" s="13" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A596" s="13"/>
       <c r="B596" s="13" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A597" s="13"/>
       <c r="B597" s="13" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A598" s="13"/>
       <c r="B598" s="13" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A599" s="13"/>
       <c r="B599" s="13" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A600" s="13"/>
       <c r="B600" s="13" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A601" s="13"/>
       <c r="B601" s="13" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A602" s="13"/>
       <c r="B602" s="13" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A603" s="13"/>
       <c r="B603" s="13" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A604" s="13"/>
       <c r="B604" s="13" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A605" s="13"/>
       <c r="B605" s="13" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A606" s="13"/>
       <c r="B606" s="13" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A607" s="13"/>
       <c r="B607" s="13" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A608" s="13"/>
       <c r="B608" s="13" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A609" s="13"/>
       <c r="B609" s="13" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A610" s="13"/>
       <c r="B610" s="13" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A611" s="13"/>
       <c r="B611" s="13" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A612" s="13"/>
       <c r="B612" s="13" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A613" s="13"/>
       <c r="B613" s="13" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A614" s="13"/>
       <c r="B614" s="13" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A615" s="13"/>
       <c r="B615" s="13" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A616" s="13"/>
       <c r="B616" s="13" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A617" s="13"/>
       <c r="B617" s="13" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A618" s="13"/>
       <c r="B618" s="13" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A619" s="13"/>
       <c r="B619" s="13" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A620" s="13"/>
       <c r="B620" s="13" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A621" s="13"/>
       <c r="B621" s="13" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A622" s="13"/>
       <c r="B622" s="13" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A623" s="13"/>
       <c r="B623" s="13" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A624" s="13"/>
       <c r="B624" s="13" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A625" s="13"/>
       <c r="B625" s="13" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A626" s="13"/>
       <c r="B626" s="13" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A627" s="13"/>
       <c r="B627" s="13" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A628" s="13"/>
       <c r="B628" s="13" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A629" s="13"/>
       <c r="B629" s="13" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A630" s="13"/>
       <c r="B630" s="13" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A631" s="13"/>
       <c r="B631" s="13" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A632" s="13"/>
       <c r="B632" s="13" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A633" s="13"/>
       <c r="B633" s="13" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A634" s="13"/>
       <c r="B634" s="13" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A635" s="13"/>
       <c r="B635" s="13" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A636" s="13"/>
       <c r="B636" s="13" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A637" s="13"/>
       <c r="B637" s="13" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A638" s="13"/>
       <c r="B638" s="13" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A639" s="13"/>
       <c r="B639" s="13" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A640" s="13"/>
       <c r="B640" s="13" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A641" s="13"/>
       <c r="B641" s="13" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A642" s="13"/>
       <c r="B642" s="13" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A643" s="13"/>
       <c r="B643" s="13" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A644" s="13"/>
       <c r="B644" s="13" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A645" s="13"/>
       <c r="B645" s="13" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A646" s="13"/>
       <c r="B646" s="13" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A647" s="13"/>
       <c r="B647" s="13" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A648" s="13"/>
       <c r="B648" s="13" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A649" s="13"/>
       <c r="B649" s="13" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A650" s="13"/>
       <c r="B650" s="13" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A651" s="13"/>
       <c r="B651" s="13" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A652" s="13"/>
       <c r="B652" s="13" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A653" s="13"/>
       <c r="B653" s="13" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A654" s="13"/>
       <c r="B654" s="13" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A655" s="13"/>
       <c r="B655" s="13" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A656" s="13"/>
       <c r="B656" s="13" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A657" s="13"/>
       <c r="B657" s="13" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A658" s="13"/>
       <c r="B658" s="13" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A659" s="13"/>
       <c r="B659" s="13" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A660" s="13"/>
       <c r="B660" s="13" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A661" s="13"/>
       <c r="B661" s="13" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A662" s="13"/>
       <c r="B662" s="13" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A663" s="13"/>
       <c r="B663" s="13" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A664" s="13"/>
       <c r="B664" s="13" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A665" s="13"/>
       <c r="B665" s="13" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A666" s="13"/>
       <c r="B666" s="13" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A667" s="13"/>
       <c r="B667" s="13" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A668" s="13"/>
       <c r="B668" s="13" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A669" s="13"/>
       <c r="B669" s="13" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A670" s="13"/>
       <c r="B670" s="13" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A671" s="13"/>
       <c r="B671" s="13" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A672" s="13"/>
       <c r="B672" s="13" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A673" s="13"/>
       <c r="B673" s="13" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A674" s="13"/>
       <c r="B674" s="13" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A675" s="13"/>
       <c r="B675" s="13" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A676" s="13"/>
       <c r="B676" s="13" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A677" s="13"/>
       <c r="B677" s="13" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A678" s="13"/>
       <c r="B678" s="13" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A679" s="13"/>
       <c r="B679" s="13" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A680" s="13"/>
       <c r="B680" s="13" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A681" s="13"/>
       <c r="B681" s="13" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A682" s="13"/>
       <c r="B682" s="13" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A683" s="13"/>
       <c r="B683" s="13" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A684" s="13"/>
       <c r="B684" s="13" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A685" s="13"/>
       <c r="B685" s="13" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A686" s="13"/>
       <c r="B686" s="13" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A687" s="13"/>
       <c r="B687" s="13" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A688" s="13"/>
       <c r="B688" s="13" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A689" s="13"/>
       <c r="B689" s="13" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A690" s="13"/>
       <c r="B690" s="13" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A691" s="13"/>
       <c r="B691" s="13" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A692" s="13"/>
       <c r="B692" s="13" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A693" s="13"/>
       <c r="B693" s="13" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A694" s="13"/>
       <c r="B694" s="13" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A695" s="13"/>
       <c r="B695" s="13" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A696" s="13"/>
       <c r="B696" s="13" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A697" s="13"/>
       <c r="B697" s="13" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A698" s="13"/>
       <c r="B698" s="13" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A699" s="13"/>
       <c r="B699" s="13" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A700" s="13"/>
       <c r="B700" s="13" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A701" s="13"/>
       <c r="B701" s="13" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A702" s="13"/>
       <c r="B702" s="13" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A703" s="13"/>
       <c r="B703" s="13" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A704" s="13"/>
       <c r="B704" s="13" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A705" s="13"/>
       <c r="B705" s="13" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A706" s="13"/>
       <c r="B706" s="13" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A707" s="13"/>
       <c r="B707" s="13" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A708" s="13"/>
       <c r="B708" s="13" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A709" s="13"/>
       <c r="B709" s="13" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A710" s="13"/>
       <c r="B710" s="13" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A711" s="13"/>
       <c r="B711" s="13" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A712" s="13"/>
       <c r="B712" s="13" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A713" s="13"/>
       <c r="B713" s="13" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A714" s="13"/>
       <c r="B714" s="13" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A715" s="13"/>
       <c r="B715" s="13" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A716" s="13"/>
       <c r="B716" s="13" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A717" s="13"/>
       <c r="B717" s="13" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A718" s="13"/>
       <c r="B718" s="13" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A719" s="13"/>
       <c r="B719" s="13" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A720" s="13"/>
       <c r="B720" s="13" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A721" s="13"/>
       <c r="B721" s="13" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A722" s="13"/>
       <c r="B722" s="13" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A723" s="13"/>
       <c r="B723" s="13" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A724" s="13"/>
       <c r="B724" s="13" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A725" s="13"/>
       <c r="B725" s="13" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A726" s="13"/>
       <c r="B726" s="13" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A727" s="13"/>
       <c r="B727" s="13" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A728" s="13"/>
       <c r="B728" s="13" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A729" s="13"/>
       <c r="B729" s="13" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A730" s="13"/>
       <c r="B730" s="13" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A731" s="13"/>
       <c r="B731" s="13" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A732" s="13"/>
       <c r="B732" s="13" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A733" s="13"/>
       <c r="B733" s="13" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A734" s="13"/>
       <c r="B734" s="13" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A735" s="13"/>
       <c r="B735" s="13" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A736" s="13"/>
       <c r="B736" s="13" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A737" s="13"/>
       <c r="B737" s="13" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A738" s="13"/>
       <c r="B738" s="13" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A739" s="13"/>
       <c r="B739" s="13" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A740" s="13"/>
       <c r="B740" s="13" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A741" s="13"/>
       <c r="B741" s="13" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A742" s="13"/>
       <c r="B742" s="13" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A743" s="13"/>
       <c r="B743" s="13" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A744" s="13"/>
       <c r="B744" s="13" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A745" s="13"/>
       <c r="B745" s="13" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A746" s="13"/>
       <c r="B746" s="13" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A747" s="13"/>
       <c r="B747" s="13" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A748" s="13"/>
       <c r="B748" s="13" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A749" s="13"/>
       <c r="B749" s="13" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A750" s="13"/>
       <c r="B750" s="13" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A751" s="13"/>
       <c r="B751" s="13" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A752" s="13"/>
       <c r="B752" s="13" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A753" s="13"/>
       <c r="B753" s="13" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A754" s="13"/>
       <c r="B754" s="13" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A755" s="13"/>
       <c r="B755" s="13" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A756" s="13"/>
       <c r="B756" s="13" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A757" s="13"/>
       <c r="B757" s="13" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A758" s="13"/>
       <c r="B758" s="13" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A759" s="13"/>
       <c r="B759" s="13" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A760" s="13"/>
       <c r="B760" s="13" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A761" s="13"/>
       <c r="B761" s="13" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A762" s="13"/>
       <c r="B762" s="13" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A763" s="13"/>
       <c r="B763" s="13" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A764" s="13"/>
       <c r="B764" s="13" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A765" s="13"/>
       <c r="B765" s="13" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A766" s="13"/>
       <c r="B766" s="13" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A767" s="13"/>
       <c r="B767" s="13" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A768" s="13"/>
       <c r="B768" s="13" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A769" s="13"/>
       <c r="B769" s="13" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A770" s="13"/>
       <c r="B770" s="13" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A771" s="13"/>
       <c r="B771" s="13" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A772" s="13"/>
       <c r="B772" s="13" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A773" s="13"/>
       <c r="B773" s="13" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A774" s="13"/>
       <c r="B774" s="13" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A775" s="13"/>
       <c r="B775" s="13" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A776" s="13"/>
       <c r="B776" s="13" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A777" s="13"/>
       <c r="B777" s="13" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A778" s="13"/>
       <c r="B778" s="13" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A779" s="13"/>
       <c r="B779" s="13" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A780" s="13"/>
       <c r="B780" s="13" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A781" s="13"/>
       <c r="B781" s="13" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A782" s="13"/>
       <c r="B782" s="13" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A783" s="13"/>
       <c r="B783" s="13" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A784" s="13"/>
       <c r="B784" s="13" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A785" s="13"/>
       <c r="B785" s="13" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A786" s="13"/>
       <c r="B786" s="13" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A787" s="13"/>
       <c r="B787" s="13" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A788" s="13"/>
       <c r="B788" s="13" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A789" s="13"/>
       <c r="B789" s="13" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A790" s="13"/>
       <c r="B790" s="13" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A791" s="13"/>
       <c r="B791" s="13" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A792" s="13"/>
       <c r="B792" s="13" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A793" s="13"/>
       <c r="B793" s="13" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A794" s="13"/>
       <c r="B794" s="13" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A795" s="13"/>
       <c r="B795" s="13" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A796" s="13"/>
       <c r="B796" s="13" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A797" s="13"/>
       <c r="B797" s="13" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A798" s="13"/>
       <c r="B798" s="13" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A799" s="13"/>
       <c r="B799" s="13" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A800" s="13"/>
       <c r="B800" s="13" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A801" s="13"/>
       <c r="B801" s="13" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A802" s="13"/>
       <c r="B802" s="13" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="803" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A803" s="13"/>
       <c r="B803" s="13" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="804" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A804" s="13"/>
       <c r="B804" s="13" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A805" s="13"/>
       <c r="B805" s="13" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="806" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A806" s="13"/>
       <c r="B806" s="13" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="807" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A807" s="13"/>
       <c r="B807" s="13" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A808" s="13"/>
       <c r="B808" s="13" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="809" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A809" s="13"/>
       <c r="B809" s="13" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A810" s="13"/>
       <c r="B810" s="13" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A811" s="13"/>
       <c r="B811" s="13" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="812" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A812" s="13"/>
       <c r="B812" s="13" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="813" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A813" s="13"/>
       <c r="B813" s="13" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="814" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A814" s="13"/>
       <c r="B814" s="13" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="815" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A815" s="13"/>
       <c r="B815" s="13" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="816" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A816" s="13"/>
       <c r="B816" s="13" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A817" s="13"/>
       <c r="B817" s="13" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="818" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A818" s="13"/>
       <c r="B818" s="13" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="819" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A819" s="13"/>
       <c r="B819" s="13" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="820" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A820" s="13"/>
       <c r="B820" s="13" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="821" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A821" s="13"/>
       <c r="B821" s="13" t="s">
         <v>872</v>
@@ -16028,25 +16023,25 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T305"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H142" sqref="H142"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C238" sqref="A238:XFD238"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
-    <col min="9" max="9" width="13.875" style="21" customWidth="1"/>
-    <col min="10" max="10" width="10.875" style="21"/>
-    <col min="11" max="11" width="18.625" customWidth="1"/>
-    <col min="12" max="12" width="19.125" customWidth="1"/>
-    <col min="13" max="13" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.375" customWidth="1"/>
-    <col min="15" max="15" width="15.875" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" customWidth="1"/>
+    <col min="4" max="4" width="14.6328125" customWidth="1"/>
+    <col min="9" max="9" width="13.90625" style="21" customWidth="1"/>
+    <col min="10" max="10" width="10.90625" style="21"/>
+    <col min="11" max="11" width="18.6328125" customWidth="1"/>
+    <col min="12" max="12" width="19.08984375" customWidth="1"/>
+    <col min="13" max="13" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.36328125" customWidth="1"/>
+    <col min="15" max="15" width="15.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16108,7 +16103,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="20">
         <v>42962</v>
       </c>
@@ -16150,7 +16145,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20">
         <v>42962</v>
       </c>
@@ -16177,7 +16172,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20">
         <v>42962</v>
       </c>
@@ -16204,7 +16199,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20">
         <v>42962</v>
       </c>
@@ -16231,7 +16226,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="20">
         <v>42962</v>
       </c>
@@ -16267,7 +16262,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="20">
         <v>42962</v>
       </c>
@@ -16294,7 +16289,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="20">
         <v>42962</v>
       </c>
@@ -16321,7 +16316,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="20">
         <v>42962</v>
       </c>
@@ -16363,7 +16358,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="20">
         <v>42962</v>
       </c>
@@ -16390,7 +16385,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="20">
         <v>42962</v>
       </c>
@@ -16426,7 +16421,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="20">
         <v>42962</v>
       </c>
@@ -16453,7 +16448,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="20">
         <v>42962</v>
       </c>
@@ -16495,7 +16490,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="20">
         <v>42962</v>
       </c>
@@ -16522,7 +16517,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="20">
         <v>42962</v>
       </c>
@@ -16564,7 +16559,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20">
         <v>42962</v>
       </c>
@@ -16591,7 +16586,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="20">
         <v>42962</v>
       </c>
@@ -16618,7 +16613,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="20">
         <v>42962</v>
       </c>
@@ -16645,7 +16640,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="20">
         <v>42962</v>
       </c>
@@ -16672,7 +16667,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="20">
         <v>42962</v>
       </c>
@@ -16711,7 +16706,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20">
         <v>42962</v>
       </c>
@@ -16738,7 +16733,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="20">
         <v>42962</v>
       </c>
@@ -16765,7 +16760,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="20">
         <v>42962</v>
       </c>
@@ -16792,7 +16787,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="20">
         <v>42962</v>
       </c>
@@ -16825,7 +16820,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="20">
         <v>42962</v>
       </c>
@@ -16864,7 +16859,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="20">
         <v>42962</v>
       </c>
@@ -16891,7 +16886,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="20">
         <v>42962</v>
       </c>
@@ -16918,7 +16913,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="20">
         <v>42962</v>
       </c>
@@ -16945,7 +16940,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="20">
         <v>42962</v>
       </c>
@@ -16981,7 +16976,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="20">
         <v>42962</v>
       </c>
@@ -17008,7 +17003,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="20">
         <v>42962</v>
       </c>
@@ -17035,7 +17030,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="20">
         <v>42962</v>
       </c>
@@ -17074,7 +17069,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="20">
         <v>42962</v>
       </c>
@@ -17101,7 +17096,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="20">
         <v>42962</v>
       </c>
@@ -17128,7 +17123,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="20">
         <v>42962</v>
       </c>
@@ -17155,7 +17150,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="20">
         <v>42962</v>
       </c>
@@ -17182,7 +17177,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="20">
         <v>42962</v>
       </c>
@@ -17221,7 +17216,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="20">
         <v>42962</v>
       </c>
@@ -17248,7 +17243,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="20">
         <v>42962</v>
       </c>
@@ -17278,7 +17273,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="20">
         <v>42962</v>
       </c>
@@ -17314,7 +17309,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="20">
         <v>42962</v>
       </c>
@@ -17341,7 +17336,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="20">
         <v>42962</v>
       </c>
@@ -17368,7 +17363,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="20">
         <v>42962</v>
       </c>
@@ -17395,7 +17390,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="20">
         <v>42962</v>
       </c>
@@ -17434,7 +17429,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="20">
         <v>42962</v>
       </c>
@@ -17461,7 +17456,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="20">
         <v>42962</v>
       </c>
@@ -17497,7 +17492,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="20">
         <v>42962</v>
       </c>
@@ -17524,7 +17519,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="20">
         <v>42962</v>
       </c>
@@ -17551,7 +17546,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="20">
         <v>42962</v>
       </c>
@@ -17578,7 +17573,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="20">
         <v>42962</v>
       </c>
@@ -17605,7 +17600,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="20">
         <v>42962</v>
       </c>
@@ -17632,7 +17627,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="20">
         <v>42962</v>
       </c>
@@ -17668,7 +17663,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="20">
         <v>42962</v>
       </c>
@@ -17695,7 +17690,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="20">
         <v>42962</v>
       </c>
@@ -17722,7 +17717,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="20">
         <v>42962</v>
       </c>
@@ -17749,7 +17744,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="20">
         <v>42962</v>
       </c>
@@ -17776,7 +17771,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="20">
         <v>42962</v>
       </c>
@@ -17812,7 +17807,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="20">
         <v>42962</v>
       </c>
@@ -17839,7 +17834,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="20">
         <v>42962</v>
       </c>
@@ -17866,7 +17861,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="20">
         <v>42962</v>
       </c>
@@ -17902,7 +17897,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="20">
         <v>42962</v>
       </c>
@@ -17929,7 +17924,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="20">
         <v>42962</v>
       </c>
@@ -17968,7 +17963,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="20">
         <v>42962</v>
       </c>
@@ -17995,7 +17990,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="20">
         <v>42962</v>
       </c>
@@ -18031,7 +18026,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="20">
         <v>42962</v>
       </c>
@@ -18058,7 +18053,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="20">
         <v>42962</v>
       </c>
@@ -18085,7 +18080,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="20">
         <v>42962</v>
       </c>
@@ -18112,7 +18107,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="20">
         <v>42962</v>
       </c>
@@ -18135,7 +18130,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="20">
         <v>42962</v>
       </c>
@@ -18162,7 +18157,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="20">
         <v>42962</v>
       </c>
@@ -18198,7 +18193,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="20">
         <v>42962</v>
       </c>
@@ -18225,7 +18220,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="20">
         <v>42962</v>
       </c>
@@ -18252,7 +18247,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="20">
         <v>42962</v>
       </c>
@@ -18279,7 +18274,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="20">
         <v>42962</v>
       </c>
@@ -18306,7 +18301,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="20">
         <v>42962</v>
       </c>
@@ -18333,7 +18328,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="20">
         <v>42962</v>
       </c>
@@ -18360,7 +18355,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="20">
         <v>42962</v>
       </c>
@@ -18387,7 +18382,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="20">
         <v>42962</v>
       </c>
@@ -18414,7 +18409,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="20">
         <v>42962</v>
       </c>
@@ -18441,7 +18436,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="20">
         <v>42962</v>
       </c>
@@ -18477,7 +18472,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="20">
         <v>42962</v>
       </c>
@@ -18504,7 +18499,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="20">
         <v>42962</v>
       </c>
@@ -18531,7 +18526,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="20">
         <v>42962</v>
       </c>
@@ -18570,7 +18565,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="20">
         <v>42962</v>
       </c>
@@ -18597,7 +18592,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="20">
         <v>42962</v>
       </c>
@@ -18624,7 +18619,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="20">
         <v>42962</v>
       </c>
@@ -18651,7 +18646,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="20">
         <v>42962</v>
       </c>
@@ -18687,7 +18682,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="20">
         <v>42962</v>
       </c>
@@ -18714,7 +18709,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="20">
         <v>42962</v>
       </c>
@@ -18741,7 +18736,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" s="20">
         <v>42962</v>
       </c>
@@ -18780,7 +18775,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="20">
         <v>42962</v>
       </c>
@@ -18807,7 +18802,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="20">
         <v>42962</v>
       </c>
@@ -18834,7 +18829,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="20">
         <v>42962</v>
       </c>
@@ -18870,7 +18865,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="20">
         <v>42962</v>
       </c>
@@ -18897,7 +18892,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="20">
         <v>42962</v>
       </c>
@@ -18933,7 +18928,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="20">
         <v>42962</v>
       </c>
@@ -18960,7 +18955,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="20">
         <v>42962</v>
       </c>
@@ -18999,7 +18994,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="20">
         <v>42962</v>
       </c>
@@ -19026,7 +19021,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="20">
         <v>42962</v>
       </c>
@@ -19053,7 +19048,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="20">
         <v>42962</v>
       </c>
@@ -19080,7 +19075,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="20">
         <v>42962</v>
       </c>
@@ -19107,7 +19102,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="20">
         <v>42962</v>
       </c>
@@ -19134,7 +19129,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="20">
         <v>42962</v>
       </c>
@@ -19173,7 +19168,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="20">
         <v>42962</v>
       </c>
@@ -19200,7 +19195,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="20">
         <v>42962</v>
       </c>
@@ -19227,7 +19222,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="20">
         <v>42962</v>
       </c>
@@ -19254,7 +19249,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="20">
         <v>42962</v>
       </c>
@@ -19281,7 +19276,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="20">
         <v>42962</v>
       </c>
@@ -19308,7 +19303,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="20">
         <v>42962</v>
       </c>
@@ -19335,7 +19330,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="20">
         <v>42962</v>
       </c>
@@ -19362,7 +19357,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="20">
         <v>42962</v>
       </c>
@@ -19389,7 +19384,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="20">
         <v>42962</v>
       </c>
@@ -19416,7 +19411,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="20">
         <v>42962</v>
       </c>
@@ -19443,7 +19438,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="20">
         <v>42962</v>
       </c>
@@ -19470,7 +19465,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="20">
         <v>42962</v>
       </c>
@@ -19497,7 +19492,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" s="20">
         <v>42962</v>
       </c>
@@ -19533,7 +19528,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="20">
         <v>42962</v>
       </c>
@@ -19560,7 +19555,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="20">
         <v>42962</v>
       </c>
@@ -19587,7 +19582,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="20">
         <v>42962</v>
       </c>
@@ -19614,7 +19609,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120" s="20">
         <v>42962</v>
       </c>
@@ -19650,7 +19645,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="20">
         <v>42962</v>
       </c>
@@ -19677,7 +19672,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="20">
         <v>42962</v>
       </c>
@@ -19704,7 +19699,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="20">
         <v>42962</v>
       </c>
@@ -19734,7 +19729,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="20">
         <v>42962</v>
       </c>
@@ -19761,7 +19756,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="20">
         <v>42962</v>
       </c>
@@ -19788,7 +19783,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="20">
         <v>42962</v>
       </c>
@@ -19815,7 +19810,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127" s="20">
         <v>42962</v>
       </c>
@@ -19854,7 +19849,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="20">
         <v>42962</v>
       </c>
@@ -19881,7 +19876,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129" s="20">
         <v>42962</v>
       </c>
@@ -19917,7 +19912,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="20">
         <v>42962</v>
       </c>
@@ -19944,7 +19939,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A131" s="20">
         <v>42962</v>
       </c>
@@ -19980,7 +19975,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="20">
         <v>42962</v>
       </c>
@@ -20007,7 +20002,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="20">
         <v>42962</v>
       </c>
@@ -20030,7 +20025,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="20">
         <v>42962</v>
       </c>
@@ -20057,7 +20052,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="20">
         <v>42962</v>
       </c>
@@ -20084,7 +20079,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="20">
         <v>42962</v>
       </c>
@@ -20114,7 +20109,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="20">
         <v>42962</v>
       </c>
@@ -20141,7 +20136,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="20">
         <v>42962</v>
       </c>
@@ -20171,7 +20166,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="20">
         <v>42962</v>
       </c>
@@ -20198,7 +20193,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A140" s="20">
         <v>42962</v>
       </c>
@@ -20234,7 +20229,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="20">
         <v>42962</v>
       </c>
@@ -20261,7 +20256,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A142" s="20">
         <v>42962</v>
       </c>
@@ -20300,7 +20295,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="20">
         <v>42962</v>
       </c>
@@ -20327,7 +20322,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A144" s="20">
         <v>42962</v>
       </c>
@@ -20363,7 +20358,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A145" s="20">
         <v>42962</v>
       </c>
@@ -20402,7 +20397,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="20">
         <v>42962</v>
       </c>
@@ -20429,7 +20424,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A147" s="20">
         <v>42962</v>
       </c>
@@ -20465,7 +20460,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="20">
         <v>42962</v>
       </c>
@@ -20492,7 +20487,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="20">
         <v>42962</v>
       </c>
@@ -20519,7 +20514,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="20">
         <v>42962</v>
       </c>
@@ -20546,7 +20541,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="20">
         <v>42962</v>
       </c>
@@ -20573,7 +20568,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="20">
         <v>42962</v>
       </c>
@@ -20600,7 +20595,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="20">
         <v>42962</v>
       </c>
@@ -20627,7 +20622,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="20">
         <v>42962</v>
       </c>
@@ -20654,7 +20649,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="20">
         <v>42962</v>
       </c>
@@ -20681,7 +20676,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="20">
         <v>42962</v>
       </c>
@@ -20708,7 +20703,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="20">
         <v>42962</v>
       </c>
@@ -20735,7 +20730,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A158" s="20">
         <v>42962</v>
       </c>
@@ -20774,7 +20769,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="20">
         <v>42962</v>
       </c>
@@ -20801,7 +20796,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A160" s="20">
         <v>42962</v>
       </c>
@@ -20837,7 +20832,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="20">
         <v>42962</v>
       </c>
@@ -20864,7 +20859,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="20">
         <v>42962</v>
       </c>
@@ -20891,7 +20886,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="20">
         <v>42962</v>
       </c>
@@ -20918,7 +20913,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A164" s="20">
         <v>42962</v>
       </c>
@@ -20954,7 +20949,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="20">
         <v>42962</v>
       </c>
@@ -20981,7 +20976,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="20">
         <v>42962</v>
       </c>
@@ -21008,7 +21003,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A167" s="20">
         <v>42962</v>
       </c>
@@ -21047,7 +21042,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="20">
         <v>42962</v>
       </c>
@@ -21074,7 +21069,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A169" s="20">
         <v>42962</v>
       </c>
@@ -21110,7 +21105,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="20">
         <v>42962</v>
       </c>
@@ -21137,7 +21132,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A171" s="20">
         <v>42962</v>
       </c>
@@ -21173,7 +21168,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" s="20">
         <v>42962</v>
       </c>
@@ -21200,7 +21195,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="20">
         <v>42962</v>
       </c>
@@ -21227,7 +21222,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="20">
         <v>42962</v>
       </c>
@@ -21254,7 +21249,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="20">
         <v>42962</v>
       </c>
@@ -21281,7 +21276,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A176" s="20">
         <v>42962</v>
       </c>
@@ -21320,7 +21315,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="177" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" s="20">
         <v>42962</v>
       </c>
@@ -21347,7 +21342,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="178" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="20">
         <v>42962</v>
       </c>
@@ -21374,7 +21369,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="179" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="20">
         <v>42962</v>
       </c>
@@ -21401,7 +21396,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="180" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="20">
         <v>42962</v>
       </c>
@@ -21428,7 +21423,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="181" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="20">
         <v>42962</v>
       </c>
@@ -21455,7 +21450,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A182" s="20">
         <v>42962</v>
       </c>
@@ -21491,7 +21486,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="183" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="20">
         <v>42962</v>
       </c>
@@ -21518,7 +21513,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="184" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="20">
         <v>42962</v>
       </c>
@@ -21545,7 +21540,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="185" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="20">
         <v>42962</v>
       </c>
@@ -21572,7 +21567,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="186" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="20">
         <v>42962</v>
       </c>
@@ -21599,7 +21594,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="187" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="20">
         <v>42962</v>
       </c>
@@ -21626,7 +21621,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="188" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="20">
         <v>42962</v>
       </c>
@@ -21653,7 +21648,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="189" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" s="20">
         <v>42962</v>
       </c>
@@ -21680,7 +21675,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="190" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="20">
         <v>42962</v>
       </c>
@@ -21703,7 +21698,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="191" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="20">
         <v>42962</v>
       </c>
@@ -21730,7 +21725,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="192" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" s="20">
         <v>42962</v>
       </c>
@@ -21760,7 +21755,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="193" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="20">
         <v>42962</v>
       </c>
@@ -21787,7 +21782,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A194" s="20">
         <v>42962</v>
       </c>
@@ -21826,7 +21821,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="195" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" s="20">
         <v>42962</v>
       </c>
@@ -21853,7 +21848,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="196" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" s="20">
         <v>42962</v>
       </c>
@@ -21883,7 +21878,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="197" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" s="20">
         <v>42962</v>
       </c>
@@ -21910,7 +21905,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="198" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" s="20">
         <v>42962</v>
       </c>
@@ -21940,7 +21935,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="199" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" s="20">
         <v>42962</v>
       </c>
@@ -21967,7 +21962,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="200" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" s="20">
         <v>42962</v>
       </c>
@@ -21994,7 +21989,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="201" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" s="20">
         <v>42962</v>
       </c>
@@ -22021,7 +22016,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="202" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" s="20">
         <v>42962</v>
       </c>
@@ -22051,7 +22046,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="203" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" s="20">
         <v>42962</v>
       </c>
@@ -22078,7 +22073,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="204" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" s="20">
         <v>42962</v>
       </c>
@@ -22108,7 +22103,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="205" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" s="20">
         <v>42962</v>
       </c>
@@ -22135,7 +22130,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="206" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" s="20">
         <v>42962</v>
       </c>
@@ -22162,7 +22157,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="207" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" s="20">
         <v>42962</v>
       </c>
@@ -22192,7 +22187,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="208" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" s="20">
         <v>42962</v>
       </c>
@@ -22219,7 +22214,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" s="20">
         <v>42962</v>
       </c>
@@ -22249,7 +22244,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" s="20">
         <v>42962</v>
       </c>
@@ -22276,7 +22271,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" s="20">
         <v>42962</v>
       </c>
@@ -22306,7 +22301,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" s="20">
         <v>42962</v>
       </c>
@@ -22333,7 +22328,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" s="20">
         <v>42962</v>
       </c>
@@ -22363,7 +22358,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" s="20">
         <v>42962</v>
       </c>
@@ -22390,7 +22385,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" s="20">
         <v>42962</v>
       </c>
@@ -22420,7 +22415,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" s="20">
         <v>42962</v>
       </c>
@@ -22447,7 +22442,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" s="20">
         <v>42962</v>
       </c>
@@ -22477,7 +22472,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" s="20">
         <v>42962</v>
       </c>
@@ -22504,7 +22499,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" s="20">
         <v>42962</v>
       </c>
@@ -22534,7 +22529,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" s="20">
         <v>42962</v>
       </c>
@@ -22561,7 +22556,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" s="20">
         <v>42962</v>
       </c>
@@ -22591,7 +22586,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" s="20">
         <v>42962</v>
       </c>
@@ -22618,7 +22613,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" s="20">
         <v>42962</v>
       </c>
@@ -22648,7 +22643,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" s="20">
         <v>42962</v>
       </c>
@@ -22675,7 +22670,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="225" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" s="20">
         <v>42962</v>
       </c>
@@ -22705,7 +22700,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="226" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" s="20">
         <v>42962</v>
       </c>
@@ -22732,7 +22727,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="227" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" s="20">
         <v>42962</v>
       </c>
@@ -22759,7 +22754,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="228" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" s="20">
         <v>42962</v>
       </c>
@@ -22789,7 +22784,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="229" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" s="20">
         <v>42962</v>
       </c>
@@ -22816,7 +22811,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="230" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" s="20">
         <v>42962</v>
       </c>
@@ -22846,7 +22841,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="231" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" s="20">
         <v>42962</v>
       </c>
@@ -22873,7 +22868,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="232" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" s="20">
         <v>42962</v>
       </c>
@@ -22903,7 +22898,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="233" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" s="20">
         <v>42962</v>
       </c>
@@ -22930,7 +22925,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="234" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" s="20">
         <v>42962</v>
       </c>
@@ -22960,7 +22955,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="235" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" s="20">
         <v>42962</v>
       </c>
@@ -22987,7 +22982,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="236" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" s="20">
         <v>42962</v>
       </c>
@@ -23017,7 +23012,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="237" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" s="20">
         <v>42962</v>
       </c>
@@ -23047,7 +23042,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A238" s="20">
         <v>42962</v>
       </c>
@@ -23077,7 +23072,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="239" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" s="20">
         <v>42962</v>
       </c>
@@ -23104,7 +23099,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="240" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" s="20">
         <v>42962</v>
       </c>
@@ -23134,7 +23129,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" s="20">
         <v>42962</v>
       </c>
@@ -23161,7 +23156,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" s="20">
         <v>42962</v>
       </c>
@@ -23191,7 +23186,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" s="20">
         <v>42962</v>
       </c>
@@ -23218,7 +23213,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" s="20">
         <v>42962</v>
       </c>
@@ -23248,7 +23243,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" s="20">
         <v>42962</v>
       </c>
@@ -23275,7 +23270,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" s="20">
         <v>42962</v>
       </c>
@@ -23305,7 +23300,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" s="20">
         <v>42962</v>
       </c>
@@ -23332,7 +23327,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" s="20">
         <v>42962</v>
       </c>
@@ -23362,7 +23357,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" s="20">
         <v>42962</v>
       </c>
@@ -23389,7 +23384,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" s="20">
         <v>42962</v>
       </c>
@@ -23419,7 +23414,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" s="20">
         <v>42962</v>
       </c>
@@ -23446,7 +23441,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" s="20">
         <v>42962</v>
       </c>
@@ -23476,7 +23471,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" s="20">
         <v>42962</v>
       </c>
@@ -23503,7 +23498,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" s="20">
         <v>42962</v>
       </c>
@@ -23533,7 +23528,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" s="20">
         <v>42962</v>
       </c>
@@ -23560,7 +23555,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" s="20">
         <v>42962</v>
       </c>
@@ -23590,7 +23585,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" s="20">
         <v>42962</v>
       </c>
@@ -23617,7 +23612,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" s="20">
         <v>42962</v>
       </c>
@@ -23647,7 +23642,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" s="20">
         <v>42962</v>
       </c>
@@ -23674,7 +23669,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" s="20">
         <v>42962</v>
       </c>
@@ -23697,7 +23692,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" s="20">
         <v>42962</v>
       </c>
@@ -23724,7 +23719,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" s="20">
         <v>42962</v>
       </c>
@@ -23754,7 +23749,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" s="20">
         <v>42962</v>
       </c>
@@ -23781,7 +23776,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" s="20">
         <v>42962</v>
       </c>
@@ -23811,7 +23806,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" s="20">
         <v>42962</v>
       </c>
@@ -23841,7 +23836,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" s="20">
         <v>42962</v>
       </c>
@@ -23868,7 +23863,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" s="20">
         <v>42962</v>
       </c>
@@ -23898,7 +23893,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" s="20">
         <v>42962</v>
       </c>
@@ -23925,7 +23920,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" s="20">
         <v>42962</v>
       </c>
@@ -23955,7 +23950,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270" s="20">
         <v>42962</v>
       </c>
@@ -23982,7 +23977,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" s="20">
         <v>42962</v>
       </c>
@@ -24012,7 +24007,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" s="20">
         <v>42962</v>
       </c>
@@ -24039,7 +24034,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" s="20">
         <v>42962</v>
       </c>
@@ -24069,7 +24064,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274" s="20">
         <v>42962</v>
       </c>
@@ -24096,7 +24091,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275" s="20">
         <v>42962</v>
       </c>
@@ -24126,7 +24121,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" s="20">
         <v>42962</v>
       </c>
@@ -24153,7 +24148,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277" s="20">
         <v>42962</v>
       </c>
@@ -24183,7 +24178,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" s="20">
         <v>42962</v>
       </c>
@@ -24210,7 +24205,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" s="20">
         <v>42962</v>
       </c>
@@ -24240,7 +24235,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" s="20">
         <v>42962</v>
       </c>
@@ -24267,7 +24262,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281" s="20">
         <v>42962</v>
       </c>
@@ -24297,7 +24292,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282" s="20">
         <v>42962</v>
       </c>
@@ -24327,7 +24322,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" s="20">
         <v>42962</v>
       </c>
@@ -24354,7 +24349,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284" s="20">
         <v>42962</v>
       </c>
@@ -24384,7 +24379,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" s="20">
         <v>42962</v>
       </c>
@@ -24411,7 +24406,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286" s="20">
         <v>42962</v>
       </c>
@@ -24441,7 +24436,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" s="20">
         <v>42962</v>
       </c>
@@ -24471,7 +24466,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" s="20">
         <v>42962</v>
       </c>
@@ -24498,7 +24493,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" s="20">
         <v>42962</v>
       </c>
@@ -24528,7 +24523,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290" s="20">
         <v>42962</v>
       </c>
@@ -24555,7 +24550,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" s="20">
         <v>42962</v>
       </c>
@@ -24585,7 +24580,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" s="20">
         <v>42962</v>
       </c>
@@ -24615,7 +24610,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293" s="20">
         <v>42962</v>
       </c>
@@ -24642,7 +24637,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" s="20">
         <v>42962</v>
       </c>
@@ -24672,7 +24667,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295" s="20">
         <v>42962</v>
       </c>
@@ -24699,7 +24694,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" s="20">
         <v>42962</v>
       </c>
@@ -24729,7 +24724,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297" s="20">
         <v>42962</v>
       </c>
@@ -24756,7 +24751,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298" s="20">
         <v>42962</v>
       </c>
@@ -24786,7 +24781,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299" s="20">
         <v>42962</v>
       </c>
@@ -24813,7 +24808,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" s="20">
         <v>42962</v>
       </c>
@@ -24843,7 +24838,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" s="20">
         <v>42962</v>
       </c>
@@ -24870,7 +24865,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302" s="20">
         <v>42962</v>
       </c>
@@ -24900,7 +24895,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" s="20">
         <v>42962</v>
       </c>
@@ -24927,7 +24922,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304" s="20">
         <v>42962</v>
       </c>
@@ -24950,7 +24945,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="305" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="G305">
         <f>SUM(G2:G304)</f>
         <v>10000</v>
@@ -24983,23 +24978,23 @@
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.125" customWidth="1"/>
-    <col min="5" max="6" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.125" customWidth="1"/>
-    <col min="8" max="8" width="3.125" customWidth="1"/>
-    <col min="9" max="9" width="5.125" customWidth="1"/>
-    <col min="10" max="11" width="4.125" customWidth="1"/>
-    <col min="12" max="12" width="3.125" customWidth="1"/>
-    <col min="13" max="13" width="4.125" customWidth="1"/>
-    <col min="14" max="14" width="5.125" customWidth="1"/>
+    <col min="1" max="1" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.08984375" customWidth="1"/>
+    <col min="5" max="6" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.08984375" customWidth="1"/>
+    <col min="8" max="8" width="3.08984375" customWidth="1"/>
+    <col min="9" max="9" width="5.08984375" customWidth="1"/>
+    <col min="10" max="11" width="4.08984375" customWidth="1"/>
+    <col min="12" max="12" width="3.08984375" customWidth="1"/>
+    <col min="13" max="13" width="4.08984375" customWidth="1"/>
+    <col min="14" max="14" width="5.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="25" t="s">
         <v>964</v>
       </c>
@@ -25007,7 +25002,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="25" t="s">
         <v>961</v>
       </c>
@@ -25054,7 +25049,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="26">
         <v>1</v>
       </c>
@@ -25091,7 +25086,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="26">
         <v>2</v>
       </c>
@@ -25128,7 +25123,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="26">
         <v>3</v>
       </c>
@@ -25165,7 +25160,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="26">
         <v>4</v>
       </c>
@@ -25196,7 +25191,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="26">
         <v>5</v>
       </c>
@@ -25221,7 +25216,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
         <v>963</v>
       </c>
@@ -25268,7 +25263,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="29" t="s">
         <v>961</v>
       </c>
@@ -25288,7 +25283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="28" t="s">
         <v>67</v>
       </c>
@@ -25302,7 +25297,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="28" t="s">
         <v>933</v>
       </c>
@@ -25316,7 +25311,7 @@
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="28" t="s">
         <v>51</v>
       </c>
@@ -25330,7 +25325,7 @@
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="28" t="s">
         <v>909</v>
       </c>
@@ -25348,7 +25343,7 @@
       </c>
       <c r="F16" s="31"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="28" t="s">
         <v>65</v>
       </c>
@@ -25364,7 +25359,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="28" t="s">
         <v>71</v>
       </c>
@@ -25376,7 +25371,7 @@
       </c>
       <c r="F18" s="31"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="28" t="s">
         <v>908</v>
       </c>
@@ -25392,7 +25387,7 @@
       <c r="E19" s="31"/>
       <c r="F19" s="31"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="28" t="s">
         <v>77</v>
       </c>
@@ -25408,7 +25403,7 @@
       <c r="E20" s="31"/>
       <c r="F20" s="31"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="28" t="s">
         <v>53</v>
       </c>
@@ -25422,7 +25417,7 @@
       </c>
       <c r="F21" s="31"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="28" t="s">
         <v>75</v>
       </c>
@@ -25434,7 +25429,7 @@
       <c r="E22" s="31"/>
       <c r="F22" s="31"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="28" t="s">
         <v>55</v>
       </c>
@@ -25469,35 +25464,35 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.90625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.36328125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="19" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.875" customWidth="1"/>
+    <col min="22" max="22" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" s="25" t="s">
         <v>964</v>
       </c>
@@ -25505,7 +25500,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" s="25" t="s">
         <v>961</v>
       </c>
@@ -25582,7 +25577,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" s="26">
         <v>1</v>
       </c>
@@ -25641,7 +25636,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" s="26">
         <v>2</v>
       </c>
@@ -25694,7 +25689,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" s="26">
         <v>3</v>
       </c>
@@ -25737,7 +25732,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" s="26">
         <v>4</v>
       </c>
@@ -25774,7 +25769,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" s="26">
         <v>5</v>
       </c>
@@ -25807,7 +25802,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
         <v>963</v>
       </c>
@@ -25884,7 +25879,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>961</v>
       </c>
@@ -25904,7 +25899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>270</v>
       </c>
@@ -25916,7 +25911,7 @@
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>390</v>
       </c>
@@ -25928,7 +25923,7 @@
       </c>
       <c r="F16" s="27"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>392</v>
       </c>
@@ -25942,7 +25937,7 @@
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>395</v>
       </c>
@@ -25954,7 +25949,7 @@
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>473</v>
       </c>
@@ -25970,7 +25965,7 @@
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>557</v>
       </c>
@@ -25984,7 +25979,7 @@
       </c>
       <c r="F20" s="27"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>567</v>
       </c>
@@ -25996,7 +25991,7 @@
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>573</v>
       </c>
@@ -26008,7 +26003,7 @@
       <c r="E22" s="27"/>
       <c r="F22" s="27"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>587</v>
       </c>
@@ -26022,7 +26017,7 @@
       <c r="E23" s="27"/>
       <c r="F23" s="27"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>618</v>
       </c>
@@ -26034,7 +26029,7 @@
       <c r="E24" s="27"/>
       <c r="F24" s="27"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>949</v>
       </c>
@@ -26050,7 +26045,7 @@
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>862</v>
       </c>

--- a/R/LE1 2017_08_15 (House 14) (LN)_newcleaned.xlsx
+++ b/R/LE1 2017_08_15 (House 14) (LN)_newcleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeozy\Documents\Yale-NUS\Y3S1\UROPS\UROPS\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3EED1570-B609-4551-B9F8-E6F2CBC3DAB6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{84C940C5-0C24-4A4D-A287-BB570176BDAB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="565" yWindow="565" windowWidth="25045" windowHeight="15430" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="179017" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="2" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2384" uniqueCount="992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2385" uniqueCount="992">
   <si>
     <t>Date/Time</t>
   </si>
@@ -3047,7 +3047,7 @@
     <numFmt numFmtId="166" formatCode="dd\-mmm\-yy"/>
     <numFmt numFmtId="167" formatCode="hh:mm:ss"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3070,6 +3070,7 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3087,6 +3088,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3140,6 +3142,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3243,7 +3253,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3325,6 +3335,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -10155,7 +10166,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable40" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable40" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:O10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="20">
     <pivotField numFmtId="164" showAll="0"/>
@@ -10302,7 +10313,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable41" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable41" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:Y10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="20">
     <pivotField numFmtId="164" showAll="0"/>
@@ -16024,8 +16035,8 @@
   <dimension ref="A1:T305"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C238" sqref="A238:XFD238"/>
+      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M238" sqref="M238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.35"/>
@@ -23070,6 +23081,9 @@
       </c>
       <c r="K238" t="s">
         <v>944</v>
+      </c>
+      <c r="M238" s="33" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="239" spans="1:13" hidden="1" x14ac:dyDescent="0.35">

--- a/R/LE1 2017_08_15 (House 14) (LN)_newcleaned.xlsx
+++ b/R/LE1 2017_08_15 (House 14) (LN)_newcleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeozy\Documents\Yale-NUS\Y3S1\UROPS\UROPS\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{84C940C5-0C24-4A4D-A287-BB570176BDAB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5C146922-9859-4BC8-A13A-C0DD208EADBA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="565" yWindow="565" windowWidth="25045" windowHeight="15430" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="179017" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId6"/>
+    <pivotCache cacheId="4" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -10166,7 +10166,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable40" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable40" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:O10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="20">
     <pivotField numFmtId="164" showAll="0"/>
@@ -10313,7 +10313,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable41" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable41" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:Y10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="20">
     <pivotField numFmtId="164" showAll="0"/>
@@ -16035,7 +16035,7 @@
   <dimension ref="A1:T305"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M238" sqref="M238"/>
     </sheetView>
   </sheetViews>
@@ -16114,7 +16114,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20">
         <v>42962</v>
       </c>
@@ -16237,7 +16237,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="20">
         <v>42962</v>
       </c>
@@ -16327,7 +16327,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="20">
         <v>42962</v>
       </c>
@@ -16396,7 +16396,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="20">
         <v>42962</v>
       </c>
@@ -16459,7 +16459,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20">
         <v>42962</v>
       </c>
@@ -16528,7 +16528,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="20">
         <v>42962</v>
       </c>
@@ -16678,7 +16678,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="20">
         <v>42962</v>
       </c>
@@ -16831,7 +16831,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="20">
         <v>42962</v>
       </c>
@@ -16951,7 +16951,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="20">
         <v>42962</v>
       </c>
@@ -17041,7 +17041,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="20">
         <v>42962</v>
       </c>
@@ -17188,7 +17188,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="20">
         <v>42962</v>
       </c>
@@ -17284,7 +17284,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="20">
         <v>42962</v>
       </c>
@@ -17401,7 +17401,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="20">
         <v>42962</v>
       </c>
@@ -17467,7 +17467,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="20">
         <v>42962</v>
       </c>
@@ -17638,7 +17638,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="20">
         <v>42962</v>
       </c>
@@ -17782,7 +17782,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="20">
         <v>42962</v>
       </c>
@@ -17872,7 +17872,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="20">
         <v>42962</v>
       </c>
@@ -17935,7 +17935,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="20">
         <v>42962</v>
       </c>
@@ -18001,7 +18001,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="20">
         <v>42962</v>
       </c>
@@ -18168,7 +18168,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="20">
         <v>42962</v>
       </c>
@@ -18447,7 +18447,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="20">
         <v>42962</v>
       </c>
@@ -18537,7 +18537,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="20">
         <v>42962</v>
       </c>
@@ -18657,7 +18657,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="20">
         <v>42962</v>
       </c>
@@ -18747,7 +18747,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="20">
         <v>42962</v>
       </c>
@@ -18840,7 +18840,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="20">
         <v>42962</v>
       </c>
@@ -18903,7 +18903,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="20">
         <v>42962</v>
       </c>
@@ -18966,7 +18966,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="20">
         <v>42962</v>
       </c>
@@ -19140,7 +19140,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="20">
         <v>42962</v>
       </c>
@@ -19503,7 +19503,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="20">
         <v>42962</v>
       </c>
@@ -19620,7 +19620,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="20">
         <v>42962</v>
       </c>
@@ -19710,7 +19710,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123" s="20">
         <v>42962</v>
       </c>
@@ -19821,7 +19821,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="20">
         <v>42962</v>
       </c>
@@ -19887,7 +19887,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="20">
         <v>42962</v>
       </c>
@@ -19950,7 +19950,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="20">
         <v>42962</v>
       </c>
@@ -20090,7 +20090,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136" s="20">
         <v>42962</v>
       </c>
@@ -20147,7 +20147,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A138" s="20">
         <v>42962</v>
       </c>
@@ -20204,7 +20204,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="20">
         <v>42962</v>
       </c>
@@ -20267,7 +20267,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="20">
         <v>42962</v>
       </c>
@@ -20333,7 +20333,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="20">
         <v>42962</v>
       </c>
@@ -20369,7 +20369,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="20">
         <v>42962</v>
       </c>
@@ -20435,7 +20435,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="20">
         <v>42962</v>
       </c>
@@ -20741,7 +20741,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="20">
         <v>42962</v>
       </c>
@@ -20807,7 +20807,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="20">
         <v>42962</v>
       </c>
@@ -20924,7 +20924,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="20">
         <v>42962</v>
       </c>
@@ -21014,7 +21014,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="20">
         <v>42962</v>
       </c>
@@ -21080,7 +21080,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="20">
         <v>42962</v>
       </c>
@@ -21143,7 +21143,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="20">
         <v>42962</v>
       </c>
@@ -21287,7 +21287,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="20">
         <v>42962</v>
       </c>
@@ -21461,7 +21461,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="20">
         <v>42962</v>
       </c>
@@ -21793,7 +21793,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" s="20">
         <v>42962</v>
       </c>
@@ -23053,7 +23053,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" s="20">
         <v>42962</v>
       </c>
@@ -24969,8 +24969,7 @@
   <autoFilter ref="A1:T305" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <filterColumn colId="7">
       <filters>
-        <filter val="HC"/>
-        <filter val="HC'"/>
+        <filter val="DCA'"/>
       </filters>
     </filterColumn>
   </autoFilter>
